--- a/OpenCart-TestCases.xlsx
+++ b/OpenCart-TestCases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\subun\Desktop\Quality Assurance\Self Testing\My Work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D49CCD49-AA39-4CC5-B33E-F36C5DA579B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E1DEF25-96D2-4ED3-9C54-14E18E856DC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" firstSheet="8" activeTab="8" xr2:uid="{41156114-74AD-497F-941E-B6F3913EE88F}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="1" xr2:uid="{41156114-74AD-497F-941E-B6F3913EE88F}"/>
   </bookViews>
   <sheets>
     <sheet name="Version History" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="Search" sheetId="8" r:id="rId7"/>
     <sheet name="Product Compare" sheetId="9" r:id="rId8"/>
     <sheet name="Product Display Page" sheetId="10" r:id="rId9"/>
+    <sheet name="Add to Cart" sheetId="15" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1552" uniqueCount="725">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1677" uniqueCount="770">
   <si>
     <t>Project Name</t>
   </si>
@@ -216,9 +217,6 @@
   </si>
   <si>
     <t>FRS (BRS Document not Provided)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Validate the working of Home Page Functionality. </t>
   </si>
   <si>
     <t>TS_001 
@@ -1544,9 +1542,6 @@
     <t>1. User is taken to 'Forgotten Password' page and email address given in the Login page is not displayed in this page by default [Usability point of view]</t>
   </si>
   <si>
-    <t>OPENCART-BUG-12</t>
-  </si>
-  <si>
     <t>TC_FP_024</t>
   </si>
   <si>
@@ -1677,18 +1672,6 @@
   </si>
   <si>
     <t>TC_SF_009</t>
-  </si>
-  <si>
-    <t>TC_SF_010</t>
-  </si>
-  <si>
-    <t>TC_SF_011</t>
-  </si>
-  <si>
-    <t>TC_SF_012</t>
-  </si>
-  <si>
-    <t>TC_SF_013</t>
   </si>
   <si>
     <t>Validate searching with a non existing Product Name</t>
@@ -2292,9 +2275,6 @@
     <t>Warning messsage is not getting displayed</t>
   </si>
   <si>
-    <t>OPENCART-BUG-14</t>
-  </si>
-  <si>
     <t>TC_PDP_007</t>
   </si>
   <si>
@@ -2776,6 +2756,199 @@
   </si>
   <si>
     <t>1. 'Product  Display' page functionality should work correctly in all the supported environments</t>
+  </si>
+  <si>
+    <t>ex</t>
+  </si>
+  <si>
+    <t>Validate Search by selecting the category of product</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Don't enter anything into the 'Search' text box field 
+2. Click on the button having search icon 
+3. Enter any Product Name into the 'Search Criteria' text box field - &lt;Refer Test Data&gt;
+4. Select the correct category of the given Product Name into 'Category' dropdown field - &lt;Refer Test Data&gt;
+5. Click on 'Search' button (Validate ER-1)
+6. Select a wrong category in tthe 'Category' dropdown field - - &lt;Refer Test Data&gt;
+7. Click on 'Search' button (Validate ER-2)
+</t>
+  </si>
+  <si>
+    <t>Product Name: iMac
+Correct Category Name: Mac
+Wrong Category Name: PC</t>
+  </si>
+  <si>
+    <t>1. Product should be successfully displayed in the search results.
+2. 'There is no product that matches the search criteria' should be displayed in the Search Results page</t>
+  </si>
+  <si>
+    <t>1. Product is successfully displayed in the search results.
+2. 'There is no product that matches the search criteria' is displayed in the Search Results page</t>
+  </si>
+  <si>
+    <t>Validate Page Heading, Page URL and Page Title of the 'Search' page</t>
+  </si>
+  <si>
+    <t>1. Enter any existing product name into the 'Search' text box field - &lt;Refer Test Data&gt;
+2. Click on the button having search icon 
+3. Check the Page Heading, Page URL and Page Title of the 'Search' page</t>
+  </si>
+  <si>
+    <t>1. A proper Page Heading, Page URL and Page Title should be displayed for 'Search' page</t>
+  </si>
+  <si>
+    <t>1. A proper Page Heading, Page URL and Page Title are displayed for 'Search' page</t>
+  </si>
+  <si>
+    <t>Validate the UI of Search functionality and Search page options</t>
+  </si>
+  <si>
+    <t>1. Proper UI adhering to the UI checklist should be displayed for the complete Search functionality</t>
+  </si>
+  <si>
+    <t>1. Proper UI adhering to the UI checklist are displayed for the complete Search functionality</t>
+  </si>
+  <si>
+    <t>Validate the Search functionality in all the supported environments</t>
+  </si>
+  <si>
+    <t>1. Search functionality should work correctly in all the supported environments</t>
+  </si>
+  <si>
+    <t>1. Search functionality is working correctly in all the supported environments</t>
+  </si>
+  <si>
+    <t>1. Success message with text - 'Success: You have added Product Name to your shopping cart!' should be displayed
+2. Product should be successfully displayed in the 'Shopping Cart' page</t>
+  </si>
+  <si>
+    <t>1. Proper UI adhering to the UI checklist should be displayed for the 'Add to Cart' functionality</t>
+  </si>
+  <si>
+    <t>1. 'Add to Cart' functionality should work correctly in all the supported environments</t>
+  </si>
+  <si>
+    <t>TC_ATC_001</t>
+  </si>
+  <si>
+    <t>(TS_008)
+Add to Cart</t>
+  </si>
+  <si>
+    <t>Validate adding the product to Cart from 'Product Display' Page</t>
+  </si>
+  <si>
+    <t>1. Enter any existing Product name into the Search text box field - &lt;Refer Test Data&gt;
+2. Click on the button having search icon
+3. Click on the Product displayed in the Search results
+4. Click on 'Add to Cart' button in the displayed 'Product Display' page (Validate ER-1)
+5. Click on the 'shopping cart!' link in the displayed success message (Validate ER-2)</t>
+  </si>
+  <si>
+    <t>TC_ATC_002</t>
+  </si>
+  <si>
+    <t>Validate adding the product to Cart from 'Wish List' Page</t>
+  </si>
+  <si>
+    <t>1. Open the Application URL and Login
+2. A product is added to Wish List page  - &lt;Refer Test Data&gt;</t>
+  </si>
+  <si>
+    <t>1. Click on 'Wish List' header option 
+2. Click on 'Add to Cart' icon option in the displayed 'My Wish List' page (Validate ER-1)
+3. Click on 'Shopping Cart' header option (Validate ER-2)</t>
+  </si>
+  <si>
+    <t>TC_ATC_003</t>
+  </si>
+  <si>
+    <t>Validate adding the product to Cart from Search Results Page</t>
+  </si>
+  <si>
+    <t>1. Enter any existing Product name into the Search text box field - &lt;Refer Test Data&gt;
+2. Click on the button having search icon
+3. Click on 'Add to Cart' option on the product that is displayed in the Search Results (Validate ER-1)
+4. Click on 'Cart' button which is in black color beside the search icon button on the top of the page
+5. Click on 'View Cart' option in the displayed box (Validate ER-2)</t>
+  </si>
+  <si>
+    <t>TC_ATC_004</t>
+  </si>
+  <si>
+    <t>Validate adding the product to Cart from the Related Products section of the Product Display Page</t>
+  </si>
+  <si>
+    <t>1. Enter any existing Product name into the Search text box field - &lt;Refer Test Data&gt;
+2. Click on the button having search icon
+3. Click on the Product displayed in the Search results
+4. Click on 'Add to Cart' button on one of the Products displayed in the Related Products section of the displayed 'Product Display' page (Validate ER-1)
+5. Click on the 'shopping cart!' link in the displayed success message (Validate ER-2)</t>
+  </si>
+  <si>
+    <t>TC_ATC_005</t>
+  </si>
+  <si>
+    <t>Validate adding the product to Cart from the Products displayed in the category or sub-category page</t>
+  </si>
+  <si>
+    <t>1. Hover the mouse on any of the menu option say 'Desktops'
+2. Click on 'Show All Desktops' option 
+3. Select 'Mac' subcategory option from the left side options 
+4. Click on 'Add to Cart' button that is availble on any of the Products of the displayed Category or Sub-category pages (Validate ER-1)
+5. Click on the 'shopping cart!' link in the displayed success message (Validate ER-2)</t>
+  </si>
+  <si>
+    <t>TC_ATC_006</t>
+  </si>
+  <si>
+    <t>Validate adding the product to Cart from the Products displayed in the 'Featured' section of Home page</t>
+  </si>
+  <si>
+    <t>1. Click on 'Add to Cart' button on the product that is displayed in the 'Featured' section of the Home page (Validate ER-1)
+2. Click on the 'shopping cart!' link in the displayed success message (Validate ER-2)</t>
+  </si>
+  <si>
+    <t>TC_ATC_007</t>
+  </si>
+  <si>
+    <t>Validate adding the product to Cart from 'Product Comparison' Page</t>
+  </si>
+  <si>
+    <t>1. Open the Application URL
+2. A product is added to Product Comparison page  - &lt;Refer Test Data&gt;</t>
+  </si>
+  <si>
+    <t>1. Click on 'Add to Cart' button on the product that is displayed in the 'Product Comparison' page (Validate ER-1)
+2. Click on the 'shopping cart!' link in the displayed success message (Validate ER-2)</t>
+  </si>
+  <si>
+    <t>TC_ATC_008</t>
+  </si>
+  <si>
+    <t>Validate the UI of 'Add to Cart' funtionality</t>
+  </si>
+  <si>
+    <t>1. Check the UI of the functioanality related to 'Add to Cart' (Validate ER-1)</t>
+  </si>
+  <si>
+    <t>TC_ATC_009</t>
+  </si>
+  <si>
+    <t>Validate the 'Add to Cart' page functionality in all the supported environments</t>
+  </si>
+  <si>
+    <t>1. Check the 'Add to Cart' functionality in all the supported environments (Validate ER-1)</t>
+  </si>
+  <si>
+    <t>OPENCART-BUG-6</t>
+  </si>
+  <si>
+    <t>OPENCART-BUG-7</t>
+  </si>
+  <si>
+    <t>OPENCART-BUG-8</t>
   </si>
 </sst>
 </file>
@@ -2849,12 +3022,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Verdana"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="18"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
@@ -2866,8 +3033,13 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2918,18 +3090,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -2965,11 +3131,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -3052,48 +3231,73 @@
     <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="15" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="16">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -3519,7 +3723,7 @@
       </c>
     </row>
     <row r="11" spans="7:9" ht="26.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.8">
-      <c r="G11" s="37" t="s">
+      <c r="G11" s="43" t="s">
         <v>4</v>
       </c>
       <c r="H11" s="3" t="s">
@@ -3528,7 +3732,7 @@
       <c r="I11" s="3"/>
     </row>
     <row r="12" spans="7:9" ht="26.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.8">
-      <c r="G12" s="37"/>
+      <c r="G12" s="43"/>
       <c r="H12" s="3" t="s">
         <v>6</v>
       </c>
@@ -3537,14 +3741,14 @@
       </c>
     </row>
     <row r="13" spans="7:9" ht="26.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.8">
-      <c r="G13" s="37"/>
+      <c r="G13" s="43"/>
       <c r="H13" s="3" t="s">
         <v>7</v>
       </c>
       <c r="I13" s="3"/>
     </row>
     <row r="14" spans="7:9" ht="26.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.8">
-      <c r="G14" s="37"/>
+      <c r="G14" s="43"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
     </row>
@@ -3558,12 +3762,394 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13184BBC-B389-48E4-8526-705023E01399}">
+  <dimension ref="A1:K13"/>
+  <sheetViews>
+    <sheetView topLeftCell="A9" zoomScale="51" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="17.796875" customWidth="1"/>
+    <col min="2" max="2" width="22.796875" customWidth="1"/>
+    <col min="3" max="3" width="32.06640625" customWidth="1"/>
+    <col min="4" max="4" width="26" customWidth="1"/>
+    <col min="5" max="5" width="33.53125" customWidth="1"/>
+    <col min="6" max="6" width="25.73046875" customWidth="1"/>
+    <col min="7" max="7" width="29.86328125" customWidth="1"/>
+    <col min="8" max="8" width="27.796875" customWidth="1"/>
+    <col min="9" max="9" width="22.796875" customWidth="1"/>
+    <col min="10" max="10" width="27.265625" customWidth="1"/>
+    <col min="11" max="11" width="18.796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="2" spans="1:11" s="33" customFormat="1" ht="23.65" thickTop="1" thickBot="1" x14ac:dyDescent="0.7">
+      <c r="A2" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="B2" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="D2" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="E2" s="32" t="s">
+        <v>93</v>
+      </c>
+      <c r="F2" s="32" t="s">
+        <v>94</v>
+      </c>
+      <c r="G2" s="32" t="s">
+        <v>95</v>
+      </c>
+      <c r="H2" s="32" t="s">
+        <v>96</v>
+      </c>
+      <c r="I2" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="K2" s="32" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="4" spans="1:11" ht="229.9" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="16" t="s">
+        <v>737</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>738</v>
+      </c>
+      <c r="C4" s="35" t="s">
+        <v>739</v>
+      </c>
+      <c r="D4" s="35" t="s">
+        <v>299</v>
+      </c>
+      <c r="E4" s="35" t="s">
+        <v>740</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>432</v>
+      </c>
+      <c r="G4" s="35" t="s">
+        <v>734</v>
+      </c>
+      <c r="H4" s="35" t="s">
+        <v>570</v>
+      </c>
+      <c r="I4" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" s="36" t="s">
+        <v>238</v>
+      </c>
+      <c r="K4" s="37"/>
+    </row>
+    <row r="5" spans="1:11" ht="141.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="16" t="s">
+        <v>741</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>738</v>
+      </c>
+      <c r="C5" s="35" t="s">
+        <v>742</v>
+      </c>
+      <c r="D5" s="35" t="s">
+        <v>743</v>
+      </c>
+      <c r="E5" s="35" t="s">
+        <v>744</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>432</v>
+      </c>
+      <c r="G5" s="35" t="s">
+        <v>734</v>
+      </c>
+      <c r="H5" s="35" t="s">
+        <v>570</v>
+      </c>
+      <c r="I5" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="J5" s="36" t="s">
+        <v>238</v>
+      </c>
+      <c r="K5" s="37"/>
+    </row>
+    <row r="6" spans="1:11" ht="282.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="16" t="s">
+        <v>745</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>738</v>
+      </c>
+      <c r="C6" s="35" t="s">
+        <v>746</v>
+      </c>
+      <c r="D6" s="35" t="s">
+        <v>299</v>
+      </c>
+      <c r="E6" s="35" t="s">
+        <v>747</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>432</v>
+      </c>
+      <c r="G6" s="35" t="s">
+        <v>734</v>
+      </c>
+      <c r="H6" s="35" t="s">
+        <v>570</v>
+      </c>
+      <c r="I6" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="J6" s="36" t="s">
+        <v>238</v>
+      </c>
+      <c r="K6" s="37"/>
+    </row>
+    <row r="7" spans="1:11" ht="265.14999999999998" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="16" t="s">
+        <v>748</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>738</v>
+      </c>
+      <c r="C7" s="35" t="s">
+        <v>749</v>
+      </c>
+      <c r="D7" s="35" t="s">
+        <v>299</v>
+      </c>
+      <c r="E7" s="35" t="s">
+        <v>750</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>598</v>
+      </c>
+      <c r="G7" s="35" t="s">
+        <v>734</v>
+      </c>
+      <c r="H7" s="35" t="s">
+        <v>570</v>
+      </c>
+      <c r="I7" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="J7" s="36" t="s">
+        <v>238</v>
+      </c>
+      <c r="K7" s="37"/>
+    </row>
+    <row r="8" spans="1:11" ht="247.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="16" t="s">
+        <v>751</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>738</v>
+      </c>
+      <c r="C8" s="35" t="s">
+        <v>752</v>
+      </c>
+      <c r="D8" s="35" t="s">
+        <v>299</v>
+      </c>
+      <c r="E8" s="35" t="s">
+        <v>753</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="G8" s="35" t="s">
+        <v>734</v>
+      </c>
+      <c r="H8" s="35" t="s">
+        <v>570</v>
+      </c>
+      <c r="I8" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="J8" s="36" t="s">
+        <v>238</v>
+      </c>
+      <c r="K8" s="37"/>
+    </row>
+    <row r="9" spans="1:11" ht="141.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="16" t="s">
+        <v>754</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>738</v>
+      </c>
+      <c r="C9" s="35" t="s">
+        <v>755</v>
+      </c>
+      <c r="D9" s="35" t="s">
+        <v>299</v>
+      </c>
+      <c r="E9" s="35" t="s">
+        <v>756</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="G9" s="35" t="s">
+        <v>734</v>
+      </c>
+      <c r="H9" s="35" t="s">
+        <v>570</v>
+      </c>
+      <c r="I9" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="J9" s="36" t="s">
+        <v>238</v>
+      </c>
+      <c r="K9" s="37"/>
+    </row>
+    <row r="10" spans="1:11" ht="141.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="16" t="s">
+        <v>757</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>738</v>
+      </c>
+      <c r="C10" s="35" t="s">
+        <v>758</v>
+      </c>
+      <c r="D10" s="35" t="s">
+        <v>759</v>
+      </c>
+      <c r="E10" s="35" t="s">
+        <v>760</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>432</v>
+      </c>
+      <c r="G10" s="35" t="s">
+        <v>734</v>
+      </c>
+      <c r="H10" s="35" t="s">
+        <v>570</v>
+      </c>
+      <c r="I10" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="J10" s="36" t="s">
+        <v>238</v>
+      </c>
+      <c r="K10" s="37"/>
+    </row>
+    <row r="11" spans="1:11" ht="71.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="16" t="s">
+        <v>761</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>566</v>
+      </c>
+      <c r="C11" s="35" t="s">
+        <v>762</v>
+      </c>
+      <c r="D11" s="35" t="s">
+        <v>430</v>
+      </c>
+      <c r="E11" s="35" t="s">
+        <v>763</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>521</v>
+      </c>
+      <c r="G11" s="35" t="s">
+        <v>735</v>
+      </c>
+      <c r="H11" s="35" t="s">
+        <v>570</v>
+      </c>
+      <c r="I11" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="J11" s="36" t="s">
+        <v>238</v>
+      </c>
+      <c r="K11" s="37"/>
+    </row>
+    <row r="12" spans="1:11" ht="53.65" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="16" t="s">
+        <v>764</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>566</v>
+      </c>
+      <c r="C12" s="35" t="s">
+        <v>765</v>
+      </c>
+      <c r="D12" s="35" t="s">
+        <v>430</v>
+      </c>
+      <c r="E12" s="35" t="s">
+        <v>766</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>521</v>
+      </c>
+      <c r="G12" s="35" t="s">
+        <v>736</v>
+      </c>
+      <c r="H12" s="35" t="s">
+        <v>570</v>
+      </c>
+      <c r="I12" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="J12" s="36" t="s">
+        <v>238</v>
+      </c>
+      <c r="K12" s="37"/>
+    </row>
+    <row r="13" spans="1:11" ht="14.65" thickTop="1" x14ac:dyDescent="0.45"/>
+  </sheetData>
+  <conditionalFormatting sqref="J4:J12">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="NOT TESTED">
+      <formula>NOT(ISERROR(SEARCH("NOT TESTED",J4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="BLOCKED">
+      <formula>NOT(ISERROR(SEARCH("BLOCKED",J4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="FAIL">
+      <formula>NOT(ISERROR(SEARCH("FAIL",J4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="4" operator="containsText" text="PASS">
+      <formula>NOT(ISERROR(SEARCH("PASS",J4)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J4:J12" xr:uid="{08FE0E6D-38D7-40A5-A4B7-175F1884C7D3}">
+      <formula1>"PASS, FAIL, Blocked, Not Tested"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80B4BA2A-0557-42DB-A04E-591ECEFD76EC}">
   <dimension ref="A1:K42"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" zoomScale="95" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="86" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11:C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3580,85 +4166,81 @@
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
     </row>
     <row r="3" spans="1:8" ht="18.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
     </row>
     <row r="4" spans="1:8" ht="18.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="38" t="s">
+      <c r="B4" s="45" t="s">
         <v>57</v>
       </c>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
     </row>
     <row r="5" spans="1:8" ht="18.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="45"/>
     </row>
     <row r="6" spans="1:8" ht="18.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="39">
-        <v>45550</v>
-      </c>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="39"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="44"/>
     </row>
     <row r="7" spans="1:8" ht="18.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="39">
-        <v>45611</v>
-      </c>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="44"/>
+      <c r="H7" s="44"/>
     </row>
     <row r="8" spans="1:8" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
       <c r="C8" s="9"/>
@@ -3683,7 +4265,7 @@
     </row>
     <row r="11" spans="1:8" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A11" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>13</v>
@@ -3700,7 +4282,7 @@
     </row>
     <row r="12" spans="1:8" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A12" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>13</v>
@@ -3712,12 +4294,12 @@
         <v>23</v>
       </c>
       <c r="E12" s="7">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A13" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>13</v>
@@ -3734,7 +4316,7 @@
     </row>
     <row r="14" spans="1:8" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A14" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>13</v>
@@ -3751,7 +4333,7 @@
     </row>
     <row r="15" spans="1:8" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A15" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>13</v>
@@ -3762,13 +4344,13 @@
       <c r="D15" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E15" s="7">
-        <v>22</v>
+      <c r="E15" s="10">
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A16" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>13</v>
@@ -3786,7 +4368,7 @@
     </row>
     <row r="17" spans="1:11" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A17" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>13</v>
@@ -3803,7 +4385,7 @@
     </row>
     <row r="18" spans="1:11" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A18" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>13</v>
@@ -3820,7 +4402,7 @@
     </row>
     <row r="19" spans="1:11" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A19" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B19" s="7" t="s">
         <v>13</v>
@@ -3837,7 +4419,7 @@
     </row>
     <row r="20" spans="1:11" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A20" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B20" s="7" t="s">
         <v>13</v>
@@ -3855,13 +4437,13 @@
     </row>
     <row r="21" spans="1:11" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A21" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B21" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>58</v>
+        <v>718</v>
       </c>
       <c r="D21" s="7" t="s">
         <v>27</v>
@@ -3872,7 +4454,7 @@
     </row>
     <row r="22" spans="1:11" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A22" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B22" s="7" t="s">
         <v>13</v>
@@ -3889,7 +4471,7 @@
     </row>
     <row r="23" spans="1:11" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A23" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B23" s="7" t="s">
         <v>13</v>
@@ -3906,7 +4488,7 @@
     </row>
     <row r="24" spans="1:11" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A24" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B24" s="7" t="s">
         <v>13</v>
@@ -3923,7 +4505,7 @@
     </row>
     <row r="25" spans="1:11" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A25" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B25" s="7" t="s">
         <v>13</v>
@@ -3940,7 +4522,7 @@
     </row>
     <row r="26" spans="1:11" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A26" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B26" s="7" t="s">
         <v>13</v>
@@ -3957,7 +4539,7 @@
     </row>
     <row r="27" spans="1:11" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A27" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B27" s="7" t="s">
         <v>13</v>
@@ -3974,7 +4556,7 @@
     </row>
     <row r="28" spans="1:11" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A28" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B28" s="7" t="s">
         <v>13</v>
@@ -3992,7 +4574,7 @@
     </row>
     <row r="29" spans="1:11" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A29" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B29" s="7" t="s">
         <v>13</v>
@@ -4009,7 +4591,7 @@
     </row>
     <row r="30" spans="1:11" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A30" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B30" s="7" t="s">
         <v>13</v>
@@ -4026,7 +4608,7 @@
     </row>
     <row r="31" spans="1:11" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A31" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B31" s="7" t="s">
         <v>13</v>
@@ -4043,7 +4625,7 @@
     </row>
     <row r="32" spans="1:11" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A32" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B32" s="7" t="s">
         <v>13</v>
@@ -4060,7 +4642,7 @@
     </row>
     <row r="33" spans="1:5" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A33" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B33" s="7" t="s">
         <v>13</v>
@@ -4077,7 +4659,7 @@
     </row>
     <row r="34" spans="1:5" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A34" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B34" s="7" t="s">
         <v>13</v>
@@ -4094,7 +4676,7 @@
     </row>
     <row r="35" spans="1:5" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A35" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B35" s="7" t="s">
         <v>13</v>
@@ -4111,7 +4693,7 @@
     </row>
     <row r="36" spans="1:5" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A36" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B36" s="7" t="s">
         <v>13</v>
@@ -4128,7 +4710,7 @@
     </row>
     <row r="37" spans="1:5" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A37" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B37" s="7" t="s">
         <v>13</v>
@@ -4145,7 +4727,7 @@
     </row>
     <row r="38" spans="1:5" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A38" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B38" s="7" t="s">
         <v>13</v>
@@ -4162,7 +4744,7 @@
     </row>
     <row r="39" spans="1:5" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A39" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B39" s="7" t="s">
         <v>13</v>
@@ -4179,7 +4761,7 @@
     </row>
     <row r="40" spans="1:5" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A40" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B40" s="7" t="s">
         <v>13</v>
@@ -4196,7 +4778,7 @@
     </row>
     <row r="41" spans="1:5" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A41" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B41" s="7" t="s">
         <v>13</v>
@@ -4229,8 +4811,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C39A2473-3471-467C-AB7F-A99C33EA4A63}">
   <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView topLeftCell="P1" zoomScale="81" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView topLeftCell="A12" zoomScale="38" workbookViewId="0">
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -4250,670 +4832,670 @@
   <sheetData>
     <row r="1" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="2" spans="1:11" s="28" customFormat="1" ht="37.15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="B2" s="32" t="s">
         <v>90</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="C2" s="32" t="s">
         <v>91</v>
       </c>
-      <c r="C2" s="35" t="s">
+      <c r="D2" s="32" t="s">
         <v>92</v>
       </c>
-      <c r="D2" s="35" t="s">
+      <c r="E2" s="32" t="s">
         <v>93</v>
       </c>
-      <c r="E2" s="35" t="s">
+      <c r="F2" s="32" t="s">
         <v>94</v>
       </c>
-      <c r="F2" s="35" t="s">
+      <c r="G2" s="32" t="s">
         <v>95</v>
       </c>
-      <c r="G2" s="35" t="s">
+      <c r="H2" s="32" t="s">
         <v>96</v>
       </c>
-      <c r="H2" s="35" t="s">
+      <c r="I2" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="I2" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2" s="35" t="s">
+      <c r="K2" s="32" t="s">
         <v>98</v>
-      </c>
-      <c r="K2" s="35" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="141.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="E3" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="B3" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="E3" s="15" t="s">
+      <c r="F3" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="G3" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="G3" s="14" t="s">
-        <v>103</v>
-      </c>
       <c r="H3" s="14" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I3" s="13" t="s">
         <v>29</v>
       </c>
       <c r="J3" s="19" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K3" s="1"/>
     </row>
     <row r="4" spans="1:11" ht="177" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="16" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C4" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="E4" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="D4" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="E4" s="15" t="s">
+      <c r="F4" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="G4" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="F4" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="G4" s="14" t="s">
-        <v>114</v>
-      </c>
       <c r="H4" s="14" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I4" s="13" t="s">
         <v>27</v>
       </c>
       <c r="J4" s="20" t="s">
+        <v>241</v>
+      </c>
+      <c r="K4" s="13" t="s">
         <v>242</v>
-      </c>
-      <c r="K4" s="13" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="141.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="16" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C5" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="E5" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="D5" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>117</v>
-      </c>
       <c r="F5" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="G5" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="G5" s="14" t="s">
-        <v>103</v>
-      </c>
       <c r="H5" s="14" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I5" s="13" t="s">
         <v>27</v>
       </c>
       <c r="J5" s="19" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K5" s="21"/>
     </row>
     <row r="6" spans="1:11" ht="308.64999999999998" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A6" s="16" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C6" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="D6" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="E6" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="E6" s="17" t="s">
+      <c r="F6" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="G6" s="17" t="s">
         <v>120</v>
       </c>
-      <c r="F6" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="G6" s="17" t="s">
-        <v>121</v>
-      </c>
       <c r="H6" s="14" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I6" s="13" t="s">
         <v>39</v>
       </c>
       <c r="J6" s="19" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K6" s="21"/>
     </row>
     <row r="7" spans="1:11" ht="194.65" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A7" s="16" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C7" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="F7" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="G7" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="D7" s="17" t="s">
-        <v>119</v>
-      </c>
-      <c r="E7" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="F7" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="G7" s="17" t="s">
-        <v>123</v>
-      </c>
       <c r="H7" s="14" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I7" s="13" t="s">
         <v>39</v>
       </c>
       <c r="J7" s="19" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K7" s="21"/>
     </row>
     <row r="8" spans="1:11" ht="226.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A8" s="16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C8" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="F8" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="G8" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="D8" s="17" t="s">
-        <v>119</v>
-      </c>
-      <c r="E8" s="17" t="s">
-        <v>131</v>
-      </c>
-      <c r="F8" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="G8" s="17" t="s">
-        <v>125</v>
-      </c>
       <c r="H8" s="14" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I8" s="13" t="s">
         <v>39</v>
       </c>
       <c r="J8" s="19" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K8" s="21"/>
     </row>
     <row r="9" spans="1:11" ht="186" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A9" s="16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C9" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="F9" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="G9" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="D9" s="17" t="s">
-        <v>119</v>
-      </c>
-      <c r="E9" s="17" t="s">
-        <v>130</v>
-      </c>
-      <c r="F9" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="G9" s="17" t="s">
-        <v>127</v>
-      </c>
       <c r="H9" s="14" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I9" s="13" t="s">
         <v>39</v>
       </c>
       <c r="J9" s="19" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K9" s="21"/>
     </row>
     <row r="10" spans="1:11" ht="196.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A10" s="16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C10" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="G10" s="17" t="s">
         <v>128</v>
       </c>
-      <c r="D10" s="17" t="s">
-        <v>119</v>
-      </c>
-      <c r="E10" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="F10" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="G10" s="17" t="s">
-        <v>129</v>
-      </c>
       <c r="H10" s="14" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="I10" s="13" t="s">
         <v>39</v>
       </c>
       <c r="J10" s="19" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K10" s="21"/>
     </row>
     <row r="11" spans="1:11" ht="178.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A11" s="16" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C11" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="G11" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="D11" s="17" t="s">
-        <v>119</v>
-      </c>
-      <c r="E11" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="F11" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="G11" s="17" t="s">
-        <v>136</v>
-      </c>
       <c r="H11" s="14" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="I11" s="13" t="s">
         <v>39</v>
       </c>
       <c r="J11" s="19" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K11" s="21"/>
     </row>
     <row r="12" spans="1:11" ht="124.15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A12" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="B12" s="18" t="s">
         <v>140</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="C12" s="17" t="s">
         <v>141</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="D12" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="F12" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="G12" s="17" t="s">
         <v>142</v>
       </c>
-      <c r="D12" s="17" t="s">
-        <v>119</v>
-      </c>
-      <c r="E12" s="17" t="s">
-        <v>144</v>
-      </c>
-      <c r="F12" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="G12" s="17" t="s">
-        <v>143</v>
-      </c>
       <c r="H12" s="14" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I12" s="13" t="s">
         <v>39</v>
       </c>
       <c r="J12" s="19" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K12" s="21"/>
     </row>
     <row r="13" spans="1:11" ht="71.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A13" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="C13" s="17" t="s">
         <v>145</v>
       </c>
-      <c r="B13" s="18" t="s">
-        <v>141</v>
-      </c>
-      <c r="C13" s="17" t="s">
+      <c r="D13" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="F13" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="G13" s="17" t="s">
         <v>146</v>
       </c>
-      <c r="D13" s="17" t="s">
-        <v>119</v>
-      </c>
-      <c r="E13" s="17" t="s">
-        <v>157</v>
-      </c>
-      <c r="F13" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="G13" s="17" t="s">
-        <v>147</v>
-      </c>
       <c r="H13" s="14" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I13" s="13" t="s">
         <v>39</v>
       </c>
       <c r="J13" s="20" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="K13" s="13" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="124.15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A14" s="16" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C14" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="F14" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="G14" s="17" t="s">
         <v>155</v>
       </c>
-      <c r="D14" s="17" t="s">
-        <v>119</v>
-      </c>
-      <c r="E14" s="17" t="s">
-        <v>158</v>
-      </c>
-      <c r="F14" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="G14" s="17" t="s">
-        <v>156</v>
-      </c>
       <c r="H14" s="14" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I14" s="13" t="s">
         <v>27</v>
       </c>
       <c r="J14" s="19" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K14" s="22"/>
     </row>
     <row r="15" spans="1:11" ht="194.65" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A15" s="16" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E15" s="17" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F15" s="18">
         <v>12345</v>
       </c>
       <c r="G15" s="17" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H15" s="14" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I15" s="13" t="s">
         <v>39</v>
       </c>
       <c r="J15" s="20" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="K15" s="13" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="88.9" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A16" s="16" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C16" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>175</v>
+      </c>
+      <c r="F16" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="G16" s="17" t="s">
         <v>161</v>
       </c>
-      <c r="D16" s="17" t="s">
-        <v>119</v>
-      </c>
-      <c r="E16" s="17" t="s">
-        <v>176</v>
-      </c>
-      <c r="F16" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="G16" s="17" t="s">
-        <v>162</v>
-      </c>
       <c r="H16" s="14" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I16" s="13" t="s">
         <v>39</v>
       </c>
       <c r="J16" s="19" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K16" s="22"/>
     </row>
     <row r="17" spans="1:11" ht="53.65" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A17" s="16" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C17" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="F17" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="G17" s="17" t="s">
         <v>163</v>
       </c>
-      <c r="D17" s="17" t="s">
-        <v>119</v>
-      </c>
-      <c r="E17" s="17" t="s">
-        <v>177</v>
-      </c>
-      <c r="F17" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="G17" s="17" t="s">
-        <v>164</v>
-      </c>
       <c r="H17" s="14" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="I17" s="13" t="s">
         <v>39</v>
       </c>
       <c r="J17" s="19" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K17" s="21"/>
     </row>
     <row r="18" spans="1:11" ht="159.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A18" s="16" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C18" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="E18" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="F18" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="G18" s="17" t="s">
         <v>165</v>
       </c>
-      <c r="D18" s="17" t="s">
-        <v>119</v>
-      </c>
-      <c r="E18" s="17" t="s">
-        <v>178</v>
-      </c>
-      <c r="F18" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="G18" s="17" t="s">
-        <v>166</v>
-      </c>
       <c r="H18" s="14" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="I18" s="13" t="s">
         <v>39</v>
       </c>
       <c r="J18" s="19" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K18" s="21"/>
     </row>
     <row r="19" spans="1:11" ht="53.65" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A19" s="16" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C19" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="E19" s="17" t="s">
         <v>167</v>
       </c>
-      <c r="D19" s="17" t="s">
-        <v>119</v>
-      </c>
-      <c r="E19" s="17" t="s">
+      <c r="F19" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="G19" s="17" t="s">
         <v>168</v>
       </c>
-      <c r="F19" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="G19" s="17" t="s">
-        <v>169</v>
-      </c>
       <c r="H19" s="14" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="I19" s="13" t="s">
         <v>39</v>
       </c>
       <c r="J19" s="19" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K19" s="21"/>
     </row>
     <row r="20" spans="1:11" ht="53.65" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A20" s="16" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C20" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="E20" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="F20" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="G20" s="17" t="s">
         <v>170</v>
       </c>
-      <c r="D20" s="17" t="s">
-        <v>119</v>
-      </c>
-      <c r="E20" s="17" t="s">
-        <v>168</v>
-      </c>
-      <c r="F20" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="G20" s="17" t="s">
-        <v>171</v>
-      </c>
       <c r="H20" s="14" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="I20" s="13" t="s">
         <v>39</v>
       </c>
       <c r="J20" s="19" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K20" s="21"/>
     </row>
     <row r="21" spans="1:11" ht="53.65" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A21" s="16" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C21" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="E21" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="F21" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="G21" s="17" t="s">
         <v>172</v>
       </c>
-      <c r="D21" s="17" t="s">
-        <v>119</v>
-      </c>
-      <c r="E21" s="17" t="s">
-        <v>168</v>
-      </c>
-      <c r="F21" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="G21" s="17" t="s">
-        <v>173</v>
-      </c>
       <c r="H21" s="14" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I21" s="13" t="s">
         <v>27</v>
       </c>
       <c r="J21" s="19" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K21" s="21"/>
     </row>
@@ -4928,8 +5510,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{595B4E0E-341F-4209-AB4E-461AAFA9D3F5}">
   <dimension ref="A1:Z18"/>
   <sheetViews>
-    <sheetView zoomScale="65" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView topLeftCell="A16" zoomScale="65" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -4949,535 +5531,535 @@
   <sheetData>
     <row r="1" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="2" spans="1:11" s="28" customFormat="1" ht="48.85" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="B2" s="32" t="s">
         <v>90</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="C2" s="32" t="s">
         <v>91</v>
       </c>
-      <c r="C2" s="35" t="s">
+      <c r="D2" s="32" t="s">
         <v>92</v>
       </c>
-      <c r="D2" s="35" t="s">
+      <c r="E2" s="32" t="s">
         <v>93</v>
       </c>
-      <c r="E2" s="35" t="s">
+      <c r="F2" s="32" t="s">
         <v>94</v>
       </c>
-      <c r="F2" s="35" t="s">
+      <c r="G2" s="32" t="s">
         <v>95</v>
       </c>
-      <c r="G2" s="35" t="s">
+      <c r="H2" s="32" t="s">
         <v>96</v>
       </c>
-      <c r="H2" s="35" t="s">
+      <c r="I2" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="I2" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2" s="35" t="s">
+      <c r="K2" s="32" t="s">
         <v>98</v>
-      </c>
-      <c r="K2" s="35" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="159.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A3" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="B3" s="18" t="s">
         <v>179</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="C3" s="17" t="s">
         <v>180</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="D3" s="17" t="s">
         <v>181</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="E3" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>199</v>
+      </c>
+      <c r="G3" s="17" t="s">
         <v>182</v>
       </c>
-      <c r="E3" s="17" t="s">
-        <v>199</v>
-      </c>
-      <c r="F3" s="18" t="s">
-        <v>200</v>
-      </c>
-      <c r="G3" s="17" t="s">
-        <v>183</v>
-      </c>
       <c r="H3" s="14" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I3" s="13" t="s">
         <v>29</v>
       </c>
       <c r="J3" s="19" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K3" s="1"/>
     </row>
     <row r="4" spans="1:11" ht="141.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A4" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="C4" s="17" t="s">
         <v>184</v>
       </c>
-      <c r="B4" s="18" t="s">
-        <v>180</v>
-      </c>
-      <c r="C4" s="17" t="s">
+      <c r="D4" s="17" t="s">
         <v>185</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="E4" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="F4" s="18" t="s">
         <v>186</v>
       </c>
-      <c r="E4" s="17" t="s">
-        <v>201</v>
-      </c>
-      <c r="F4" s="18" t="s">
+      <c r="G4" s="17" t="s">
         <v>187</v>
       </c>
-      <c r="G4" s="17" t="s">
-        <v>188</v>
-      </c>
       <c r="H4" s="14" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="I4" s="13" t="s">
         <v>29</v>
       </c>
       <c r="J4" s="19" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K4" s="1"/>
     </row>
     <row r="5" spans="1:11" ht="141.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A5" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="C5" s="17" t="s">
         <v>189</v>
       </c>
-      <c r="B5" s="18" t="s">
-        <v>180</v>
-      </c>
-      <c r="C5" s="17" t="s">
+      <c r="D5" s="17" t="s">
+        <v>185</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>201</v>
+      </c>
+      <c r="F5" s="18" t="s">
         <v>190</v>
       </c>
-      <c r="D5" s="17" t="s">
-        <v>186</v>
-      </c>
-      <c r="E5" s="17" t="s">
-        <v>202</v>
-      </c>
-      <c r="F5" s="18" t="s">
-        <v>191</v>
-      </c>
       <c r="G5" s="17" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H5" s="14" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="I5" s="13" t="s">
         <v>29</v>
       </c>
       <c r="J5" s="19" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K5" s="1"/>
     </row>
     <row r="6" spans="1:11" ht="141.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A6" s="18" t="s">
+        <v>191</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="C6" s="17" t="s">
         <v>192</v>
       </c>
-      <c r="B6" s="18" t="s">
-        <v>180</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>193</v>
-      </c>
       <c r="D6" s="17" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G6" s="17" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H6" s="14" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="I6" s="13" t="s">
         <v>29</v>
       </c>
       <c r="J6" s="19" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K6" s="1"/>
     </row>
     <row r="7" spans="1:11" ht="141.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A7" s="18" t="s">
+        <v>193</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="C7" s="17" t="s">
         <v>194</v>
       </c>
-      <c r="B7" s="18" t="s">
-        <v>180</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>195</v>
-      </c>
       <c r="D7" s="17" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F7" s="18" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G7" s="17" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H7" s="14" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="I7" s="13" t="s">
         <v>29</v>
       </c>
       <c r="J7" s="19" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K7" s="1"/>
     </row>
     <row r="8" spans="1:11" ht="106.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A8" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="C8" s="17" t="s">
         <v>196</v>
       </c>
-      <c r="B8" s="18" t="s">
-        <v>180</v>
-      </c>
-      <c r="C8" s="17" t="s">
+      <c r="D8" s="17" t="s">
+        <v>185</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>205</v>
+      </c>
+      <c r="F8" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="G8" s="17" t="s">
         <v>197</v>
       </c>
-      <c r="D8" s="17" t="s">
-        <v>186</v>
-      </c>
-      <c r="E8" s="17" t="s">
-        <v>206</v>
-      </c>
-      <c r="F8" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="G8" s="17" t="s">
-        <v>198</v>
-      </c>
       <c r="H8" s="14" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I8" s="13" t="s">
         <v>39</v>
       </c>
       <c r="J8" s="19" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K8" s="1"/>
     </row>
     <row r="9" spans="1:11" ht="194.65" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A9" s="18" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C9" s="17" t="s">
+        <v>206</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>185</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>215</v>
+      </c>
+      <c r="F9" s="18" t="s">
+        <v>186</v>
+      </c>
+      <c r="G9" s="17" t="s">
         <v>207</v>
       </c>
-      <c r="D9" s="17" t="s">
-        <v>186</v>
-      </c>
-      <c r="E9" s="17" t="s">
-        <v>216</v>
-      </c>
-      <c r="F9" s="18" t="s">
-        <v>187</v>
-      </c>
-      <c r="G9" s="17" t="s">
-        <v>208</v>
-      </c>
       <c r="H9" s="14" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I9" s="13" t="s">
         <v>27</v>
       </c>
       <c r="J9" s="19" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K9" s="1"/>
     </row>
     <row r="10" spans="1:11" ht="141.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A10" s="18" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C10" s="17" t="s">
+        <v>208</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>185</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>216</v>
+      </c>
+      <c r="F10" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="G10" s="17" t="s">
         <v>209</v>
       </c>
-      <c r="D10" s="17" t="s">
-        <v>186</v>
-      </c>
-      <c r="E10" s="17" t="s">
-        <v>217</v>
-      </c>
-      <c r="F10" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="G10" s="17" t="s">
-        <v>210</v>
-      </c>
       <c r="H10" s="14" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I10" s="13" t="s">
         <v>27</v>
       </c>
       <c r="J10" s="19" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K10" s="1"/>
     </row>
     <row r="11" spans="1:11" ht="194.65" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A11" s="18" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C11" s="17" t="s">
+        <v>210</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>185</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>217</v>
+      </c>
+      <c r="F11" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="G11" s="17" t="s">
         <v>211</v>
       </c>
-      <c r="D11" s="17" t="s">
-        <v>186</v>
-      </c>
-      <c r="E11" s="17" t="s">
-        <v>218</v>
-      </c>
-      <c r="F11" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="G11" s="17" t="s">
-        <v>212</v>
-      </c>
       <c r="H11" s="29" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I11" s="30" t="s">
         <v>27</v>
       </c>
       <c r="J11" s="31" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K11" s="1"/>
     </row>
     <row r="12" spans="1:11" ht="370.9" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A12" s="18" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C12" s="17" t="s">
+        <v>218</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>185</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>227</v>
+      </c>
+      <c r="F12" s="18" t="s">
+        <v>199</v>
+      </c>
+      <c r="G12" s="17" t="s">
         <v>219</v>
       </c>
-      <c r="D12" s="17" t="s">
-        <v>186</v>
-      </c>
-      <c r="E12" s="17" t="s">
-        <v>228</v>
-      </c>
-      <c r="F12" s="18" t="s">
-        <v>200</v>
-      </c>
-      <c r="G12" s="17" t="s">
-        <v>220</v>
-      </c>
       <c r="H12" s="14" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I12" s="13" t="s">
         <v>27</v>
       </c>
       <c r="J12" s="19" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K12" s="21"/>
     </row>
     <row r="13" spans="1:11" ht="212.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A13" s="18" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C13" s="17" t="s">
+        <v>220</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>185</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>228</v>
+      </c>
+      <c r="F13" s="18" t="s">
+        <v>199</v>
+      </c>
+      <c r="G13" s="17" t="s">
         <v>221</v>
       </c>
-      <c r="D13" s="17" t="s">
-        <v>186</v>
-      </c>
-      <c r="E13" s="17" t="s">
-        <v>229</v>
-      </c>
-      <c r="F13" s="18" t="s">
-        <v>200</v>
-      </c>
-      <c r="G13" s="17" t="s">
-        <v>222</v>
-      </c>
       <c r="H13" s="14" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I13" s="13" t="s">
         <v>39</v>
       </c>
       <c r="J13" s="19" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K13" s="26"/>
     </row>
     <row r="14" spans="1:11" ht="229.9" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A14" s="18" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C14" s="17" t="s">
+        <v>222</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>185</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="F14" s="18" t="s">
+        <v>199</v>
+      </c>
+      <c r="G14" s="17" t="s">
         <v>223</v>
       </c>
-      <c r="D14" s="17" t="s">
-        <v>186</v>
-      </c>
-      <c r="E14" s="17" t="s">
-        <v>230</v>
-      </c>
-      <c r="F14" s="18" t="s">
-        <v>200</v>
-      </c>
-      <c r="G14" s="17" t="s">
-        <v>224</v>
-      </c>
       <c r="H14" s="14" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="I14" s="13" t="s">
         <v>39</v>
       </c>
       <c r="J14" s="20" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="K14" s="14" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="53.65" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A15" s="18" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C15" s="17" t="s">
+        <v>230</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>185</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>236</v>
+      </c>
+      <c r="F15" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="G15" s="17" t="s">
         <v>231</v>
       </c>
-      <c r="D15" s="17" t="s">
-        <v>186</v>
-      </c>
-      <c r="E15" s="17" t="s">
-        <v>237</v>
-      </c>
-      <c r="F15" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="G15" s="17" t="s">
-        <v>232</v>
-      </c>
       <c r="H15" s="14" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="I15" s="13" t="s">
         <v>39</v>
       </c>
       <c r="J15" s="19" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K15" s="21"/>
     </row>
     <row r="16" spans="1:11" ht="53.65" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A16" s="24" t="s">
+        <v>235</v>
+      </c>
+      <c r="B16" s="24" t="s">
+        <v>179</v>
+      </c>
+      <c r="C16" s="25" t="s">
+        <v>232</v>
+      </c>
+      <c r="D16" s="25" t="s">
+        <v>185</v>
+      </c>
+      <c r="E16" s="25" t="s">
         <v>236</v>
       </c>
-      <c r="B16" s="24" t="s">
-        <v>180</v>
-      </c>
-      <c r="C16" s="25" t="s">
+      <c r="F16" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="G16" s="25" t="s">
         <v>233</v>
       </c>
-      <c r="D16" s="25" t="s">
-        <v>186</v>
-      </c>
-      <c r="E16" s="25" t="s">
-        <v>237</v>
-      </c>
-      <c r="F16" s="24" t="s">
-        <v>102</v>
-      </c>
-      <c r="G16" s="25" t="s">
-        <v>234</v>
-      </c>
       <c r="H16" s="14" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="I16" s="13" t="s">
         <v>39</v>
       </c>
       <c r="J16" s="19" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K16" s="21"/>
     </row>
     <row r="17" spans="1:26" ht="177" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A17" s="13" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C17" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="F17" s="13" t="s">
         <v>268</v>
       </c>
-      <c r="D17" s="14" t="s">
-        <v>186</v>
-      </c>
-      <c r="E17" s="14" t="s">
-        <v>279</v>
-      </c>
-      <c r="F17" s="13" t="s">
+      <c r="G17" s="14" t="s">
         <v>269</v>
-      </c>
-      <c r="G17" s="14" t="s">
-        <v>270</v>
       </c>
       <c r="H17" s="26"/>
       <c r="I17" s="13" t="s">
         <v>27</v>
       </c>
       <c r="J17" s="27" t="s">
+        <v>270</v>
+      </c>
+      <c r="K17" s="14" t="s">
         <v>271</v>
-      </c>
-      <c r="K17" s="14" t="s">
-        <v>272</v>
       </c>
       <c r="L17" s="23"/>
       <c r="M17" s="23"/>
@@ -5506,8 +6088,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C794D347-341C-4942-9D77-D9B101B32F4C}">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView zoomScale="61" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="A9" zoomScale="61" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -5527,371 +6109,371 @@
   <sheetData>
     <row r="1" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="2" spans="1:11" ht="46.9" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="B2" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="C2" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="D2" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="E2" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="F2" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="G2" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="H2" s="11" t="s">
         <v>96</v>
-      </c>
-      <c r="H2" s="11" t="s">
-        <v>97</v>
       </c>
       <c r="I2" s="11" t="s">
         <v>20</v>
       </c>
       <c r="J2" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="K2" s="11" t="s">
         <v>98</v>
-      </c>
-      <c r="K2" s="11" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="141.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="13" t="s">
+        <v>280</v>
+      </c>
+      <c r="B3" s="13" t="s">
         <v>281</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="C3" s="14" t="s">
         <v>282</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="D3" s="14" t="s">
         <v>283</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="E3" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="G3" s="14" t="s">
         <v>284</v>
       </c>
-      <c r="E3" s="14" t="s">
-        <v>327</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="G3" s="14" t="s">
+      <c r="H3" s="14" t="s">
         <v>285</v>
-      </c>
-      <c r="H3" s="14" t="s">
-        <v>286</v>
       </c>
       <c r="I3" s="13" t="s">
         <v>29</v>
       </c>
       <c r="J3" s="19" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K3" s="15"/>
     </row>
     <row r="4" spans="1:11" ht="141.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="13" t="s">
+        <v>286</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>281</v>
+      </c>
+      <c r="C4" s="14" t="s">
         <v>287</v>
       </c>
-      <c r="B4" s="13" t="s">
-        <v>282</v>
-      </c>
-      <c r="C4" s="14" t="s">
+      <c r="D4" s="14" t="s">
         <v>288</v>
       </c>
-      <c r="D4" s="14" t="s">
-        <v>289</v>
-      </c>
       <c r="E4" s="14" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G4" s="14" t="s">
+        <v>284</v>
+      </c>
+      <c r="H4" s="14" t="s">
         <v>285</v>
       </c>
-      <c r="H4" s="14" t="s">
-        <v>286</v>
-      </c>
       <c r="I4" s="13" t="s">
         <v>39</v>
       </c>
       <c r="J4" s="19" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K4" s="15"/>
     </row>
     <row r="5" spans="1:11" ht="71.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="13" t="s">
+        <v>289</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>281</v>
+      </c>
+      <c r="C5" s="14" t="s">
         <v>290</v>
       </c>
-      <c r="B5" s="13" t="s">
-        <v>282</v>
-      </c>
-      <c r="C5" s="14" t="s">
+      <c r="D5" s="14" t="s">
+        <v>283</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>328</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="G5" s="14" t="s">
         <v>291</v>
       </c>
-      <c r="D5" s="14" t="s">
-        <v>284</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>329</v>
-      </c>
-      <c r="F5" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="G5" s="14" t="s">
+      <c r="H5" s="14" t="s">
         <v>292</v>
       </c>
-      <c r="H5" s="14" t="s">
-        <v>293</v>
-      </c>
       <c r="I5" s="13" t="s">
         <v>39</v>
       </c>
       <c r="J5" s="19" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K5" s="15"/>
     </row>
     <row r="6" spans="1:11" ht="88.9" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="13" t="s">
+        <v>293</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>281</v>
+      </c>
+      <c r="C6" s="14" t="s">
         <v>294</v>
       </c>
-      <c r="B6" s="13" t="s">
-        <v>282</v>
-      </c>
-      <c r="C6" s="14" t="s">
+      <c r="D6" s="14" t="s">
+        <v>283</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>333</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="G6" s="14" t="s">
         <v>295</v>
       </c>
-      <c r="D6" s="14" t="s">
-        <v>284</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>334</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="G6" s="14" t="s">
+      <c r="H6" s="14" t="s">
         <v>296</v>
-      </c>
-      <c r="H6" s="14" t="s">
-        <v>297</v>
       </c>
       <c r="I6" s="13" t="s">
         <v>29</v>
       </c>
       <c r="J6" s="20" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="K6" s="15" t="s">
-        <v>280</v>
+        <v>253</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="53.65" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="13" t="s">
+        <v>297</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>281</v>
+      </c>
+      <c r="C7" s="14" t="s">
         <v>298</v>
       </c>
-      <c r="B7" s="13" t="s">
-        <v>282</v>
-      </c>
-      <c r="C7" s="14" t="s">
+      <c r="D7" s="14" t="s">
         <v>299</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="E7" s="14" t="s">
+        <v>332</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="G7" s="14" t="s">
         <v>300</v>
       </c>
-      <c r="E7" s="14" t="s">
-        <v>333</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="G7" s="14" t="s">
+      <c r="H7" s="14" t="s">
         <v>301</v>
       </c>
-      <c r="H7" s="14" t="s">
-        <v>302</v>
-      </c>
       <c r="I7" s="13" t="s">
         <v>39</v>
       </c>
       <c r="J7" s="19" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K7" s="15"/>
     </row>
     <row r="8" spans="1:11" ht="71.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="13" t="s">
+        <v>302</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>281</v>
+      </c>
+      <c r="C8" s="14" t="s">
         <v>303</v>
       </c>
-      <c r="B8" s="13" t="s">
-        <v>282</v>
-      </c>
-      <c r="C8" s="14" t="s">
+      <c r="D8" s="14" t="s">
         <v>304</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="E8" s="14" t="s">
+        <v>331</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="G8" s="14" t="s">
         <v>305</v>
       </c>
-      <c r="E8" s="14" t="s">
-        <v>332</v>
-      </c>
-      <c r="F8" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="G8" s="14" t="s">
+      <c r="H8" s="14" t="s">
         <v>306</v>
       </c>
-      <c r="H8" s="14" t="s">
-        <v>307</v>
-      </c>
       <c r="I8" s="13" t="s">
         <v>39</v>
       </c>
       <c r="J8" s="19" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K8" s="15"/>
     </row>
     <row r="9" spans="1:11" ht="177" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="13" t="s">
+        <v>307</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>281</v>
+      </c>
+      <c r="C9" s="14" t="s">
         <v>308</v>
       </c>
-      <c r="B9" s="13" t="s">
-        <v>282</v>
-      </c>
-      <c r="C9" s="14" t="s">
+      <c r="D9" s="14" t="s">
         <v>309</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="E9" s="14" t="s">
+        <v>330</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="G9" s="14" t="s">
         <v>310</v>
       </c>
-      <c r="E9" s="14" t="s">
-        <v>331</v>
-      </c>
-      <c r="F9" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="G9" s="14" t="s">
+      <c r="H9" s="14" t="s">
         <v>311</v>
       </c>
-      <c r="H9" s="14" t="s">
-        <v>312</v>
-      </c>
       <c r="I9" s="13" t="s">
         <v>39</v>
       </c>
       <c r="J9" s="20" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="K9" s="15" t="s">
-        <v>254</v>
+        <v>767</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="106.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="13" t="s">
+        <v>312</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>281</v>
+      </c>
+      <c r="C10" s="14" t="s">
         <v>313</v>
       </c>
-      <c r="B10" s="13" t="s">
-        <v>282</v>
-      </c>
-      <c r="C10" s="14" t="s">
+      <c r="D10" s="14" t="s">
+        <v>283</v>
+      </c>
+      <c r="E10" s="14" t="s">
         <v>314</v>
       </c>
-      <c r="D10" s="14" t="s">
-        <v>284</v>
-      </c>
-      <c r="E10" s="14" t="s">
+      <c r="F10" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="G10" s="14" t="s">
         <v>315</v>
       </c>
-      <c r="F10" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="G10" s="14" t="s">
+      <c r="H10" s="14" t="s">
         <v>316</v>
       </c>
-      <c r="H10" s="14" t="s">
-        <v>317</v>
-      </c>
       <c r="I10" s="13" t="s">
         <v>39</v>
       </c>
       <c r="J10" s="19" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K10" s="15"/>
     </row>
     <row r="11" spans="1:11" ht="124.15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="13" t="s">
+        <v>317</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>281</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>320</v>
+      </c>
+      <c r="D11" s="14" t="s">
         <v>318</v>
       </c>
-      <c r="B11" s="13" t="s">
-        <v>282</v>
-      </c>
-      <c r="C11" s="14" t="s">
+      <c r="E11" s="14" t="s">
+        <v>329</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="G11" s="14" t="s">
         <v>321</v>
       </c>
-      <c r="D11" s="14" t="s">
-        <v>319</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>330</v>
-      </c>
-      <c r="F11" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="G11" s="14" t="s">
+      <c r="H11" s="14" t="s">
         <v>322</v>
       </c>
-      <c r="H11" s="14" t="s">
-        <v>323</v>
-      </c>
       <c r="I11" s="13" t="s">
         <v>39</v>
       </c>
       <c r="J11" s="19" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K11" s="15"/>
     </row>
     <row r="12" spans="1:11" ht="71.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="13" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C12" s="14" t="s">
+        <v>323</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>318</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>329</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="G12" s="14" t="s">
         <v>324</v>
       </c>
-      <c r="D12" s="14" t="s">
-        <v>319</v>
-      </c>
-      <c r="E12" s="14" t="s">
-        <v>330</v>
-      </c>
-      <c r="F12" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="G12" s="14" t="s">
+      <c r="H12" s="14" t="s">
         <v>325</v>
       </c>
-      <c r="H12" s="14" t="s">
-        <v>326</v>
-      </c>
       <c r="I12" s="13" t="s">
         <v>39</v>
       </c>
       <c r="J12" s="19" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K12" s="15"/>
     </row>
@@ -5907,7 +6489,7 @@
   <dimension ref="A1:Z22"/>
   <sheetViews>
     <sheetView zoomScale="58" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -5926,564 +6508,564 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="2" spans="1:12" s="36" customFormat="1" ht="23.65" thickTop="1" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A2" s="35" t="s">
+    <row r="2" spans="1:12" s="33" customFormat="1" ht="23.65" thickTop="1" thickBot="1" x14ac:dyDescent="0.7">
+      <c r="A2" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="B2" s="32" t="s">
         <v>90</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="C2" s="32" t="s">
         <v>91</v>
       </c>
-      <c r="C2" s="35" t="s">
+      <c r="D2" s="32" t="s">
         <v>92</v>
       </c>
-      <c r="D2" s="35" t="s">
+      <c r="E2" s="32" t="s">
         <v>93</v>
       </c>
-      <c r="E2" s="35" t="s">
+      <c r="F2" s="32" t="s">
         <v>94</v>
       </c>
-      <c r="F2" s="35" t="s">
+      <c r="G2" s="32" t="s">
         <v>95</v>
       </c>
-      <c r="G2" s="35" t="s">
+      <c r="H2" s="32" t="s">
         <v>96</v>
       </c>
-      <c r="H2" s="35" t="s">
+      <c r="I2" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="I2" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2" s="35" t="s">
+      <c r="K2" s="32" t="s">
         <v>98</v>
-      </c>
-      <c r="K2" s="35" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="409.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A3" s="13" t="s">
+        <v>334</v>
+      </c>
+      <c r="B3" s="13" t="s">
         <v>335</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="C3" s="14" t="s">
         <v>336</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="D3" s="14" t="s">
         <v>337</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="E3" s="14" t="s">
         <v>338</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="F3" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="G3" s="14" t="s">
         <v>339</v>
       </c>
-      <c r="F3" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="G3" s="14" t="s">
+      <c r="H3" s="14" t="s">
         <v>340</v>
-      </c>
-      <c r="H3" s="14" t="s">
-        <v>341</v>
       </c>
       <c r="I3" s="13" t="s">
         <v>29</v>
       </c>
       <c r="J3" s="27" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K3" s="14" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="L3" s="23"/>
     </row>
     <row r="4" spans="1:12" ht="212.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A4" s="13" t="s">
+        <v>342</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>335</v>
+      </c>
+      <c r="C4" s="14" t="s">
         <v>343</v>
       </c>
-      <c r="B4" s="13" t="s">
-        <v>336</v>
-      </c>
-      <c r="C4" s="14" t="s">
+      <c r="D4" s="14" t="s">
+        <v>337</v>
+      </c>
+      <c r="E4" s="14" t="s">
         <v>344</v>
       </c>
-      <c r="D4" s="14" t="s">
-        <v>338</v>
-      </c>
-      <c r="E4" s="14" t="s">
+      <c r="F4" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="G4" s="14" t="s">
         <v>345</v>
       </c>
-      <c r="F4" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="G4" s="14" t="s">
-        <v>346</v>
-      </c>
       <c r="H4" s="14" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I4" s="13" t="s">
         <v>27</v>
       </c>
       <c r="J4" s="27" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K4" s="14" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="L4" s="23"/>
     </row>
     <row r="5" spans="1:12" ht="124.15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A5" s="13" t="s">
+        <v>347</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>335</v>
+      </c>
+      <c r="C5" s="14" t="s">
         <v>348</v>
       </c>
-      <c r="B5" s="13" t="s">
-        <v>336</v>
-      </c>
-      <c r="C5" s="14" t="s">
+      <c r="D5" s="14" t="s">
         <v>349</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="E5" s="14" t="s">
         <v>350</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="F5" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="G5" s="14" t="s">
         <v>351</v>
       </c>
-      <c r="F5" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="G5" s="14" t="s">
-        <v>352</v>
-      </c>
       <c r="H5" s="14" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I5" s="13" t="s">
         <v>27</v>
       </c>
       <c r="J5" s="27" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K5" s="14" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="L5" s="23"/>
     </row>
     <row r="6" spans="1:12" ht="247.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A6" s="13" t="s">
+        <v>352</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>335</v>
+      </c>
+      <c r="C6" s="14" t="s">
         <v>353</v>
       </c>
-      <c r="B6" s="13" t="s">
-        <v>336</v>
-      </c>
-      <c r="C6" s="14" t="s">
+      <c r="D6" s="14" t="s">
         <v>354</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="E6" s="14" t="s">
         <v>355</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="F6" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="G6" s="14" t="s">
         <v>356</v>
       </c>
-      <c r="F6" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="G6" s="14" t="s">
-        <v>357</v>
-      </c>
       <c r="H6" s="14" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I6" s="13" t="s">
         <v>27</v>
       </c>
       <c r="J6" s="27" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K6" s="14" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="L6" s="23"/>
     </row>
     <row r="7" spans="1:12" ht="124.15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="13" t="s">
+        <v>357</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>335</v>
+      </c>
+      <c r="C7" s="14" t="s">
         <v>358</v>
       </c>
-      <c r="B7" s="13" t="s">
-        <v>336</v>
-      </c>
-      <c r="C7" s="14" t="s">
+      <c r="D7" s="14" t="s">
         <v>359</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="E7" s="14" t="s">
         <v>360</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="F7" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="G7" s="14" t="s">
         <v>361</v>
       </c>
-      <c r="F7" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="G7" s="14" t="s">
+      <c r="H7" s="14" t="s">
         <v>362</v>
-      </c>
-      <c r="H7" s="14" t="s">
-        <v>363</v>
       </c>
       <c r="I7" s="13" t="s">
         <v>27</v>
       </c>
       <c r="J7" s="19" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K7" s="15"/>
       <c r="L7" s="23"/>
     </row>
     <row r="8" spans="1:12" ht="353.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A8" s="13" t="s">
+        <v>363</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>335</v>
+      </c>
+      <c r="C8" s="14" t="s">
         <v>364</v>
       </c>
-      <c r="B8" s="13" t="s">
-        <v>336</v>
-      </c>
-      <c r="C8" s="14" t="s">
+      <c r="D8" s="14" t="s">
+        <v>359</v>
+      </c>
+      <c r="E8" s="14" t="s">
         <v>365</v>
       </c>
-      <c r="D8" s="14" t="s">
-        <v>360</v>
-      </c>
-      <c r="E8" s="14" t="s">
+      <c r="F8" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="G8" s="14" t="s">
         <v>366</v>
       </c>
-      <c r="F8" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="G8" s="14" t="s">
-        <v>367</v>
-      </c>
       <c r="H8" s="14" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I8" s="13" t="s">
         <v>27</v>
       </c>
       <c r="J8" s="27" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K8" s="14" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="L8" s="23"/>
     </row>
     <row r="9" spans="1:12" ht="353.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A9" s="13" t="s">
+        <v>367</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>335</v>
+      </c>
+      <c r="C9" s="14" t="s">
         <v>368</v>
       </c>
-      <c r="B9" s="13" t="s">
-        <v>336</v>
-      </c>
-      <c r="C9" s="14" t="s">
+      <c r="D9" s="14" t="s">
+        <v>337</v>
+      </c>
+      <c r="E9" s="14" t="s">
         <v>369</v>
       </c>
-      <c r="D9" s="14" t="s">
-        <v>338</v>
-      </c>
-      <c r="E9" s="14" t="s">
+      <c r="F9" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="G9" s="14" t="s">
         <v>370</v>
       </c>
-      <c r="F9" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="G9" s="14" t="s">
-        <v>371</v>
-      </c>
       <c r="H9" s="14" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I9" s="13" t="s">
         <v>27</v>
       </c>
       <c r="J9" s="27" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K9" s="14" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="L9" s="23"/>
     </row>
     <row r="10" spans="1:12" ht="141.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A10" s="13" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C10" s="14" t="s">
+        <v>371</v>
+      </c>
+      <c r="D10" s="14" t="s">
         <v>372</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="E10" s="14" t="s">
+        <v>416</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="G10" s="14" t="s">
         <v>373</v>
       </c>
-      <c r="E10" s="14" t="s">
-        <v>418</v>
-      </c>
-      <c r="F10" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="G10" s="14" t="s">
-        <v>374</v>
-      </c>
       <c r="H10" s="14" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I10" s="13" t="s">
         <v>39</v>
       </c>
       <c r="J10" s="27" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K10" s="14" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="106.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A11" s="13" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C11" s="14" t="s">
+        <v>374</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>372</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>417</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="G11" s="14" t="s">
         <v>375</v>
       </c>
-      <c r="D11" s="14" t="s">
-        <v>373</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>419</v>
-      </c>
-      <c r="F11" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="G11" s="14" t="s">
-        <v>376</v>
-      </c>
       <c r="H11" s="14" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I11" s="13" t="s">
         <v>39</v>
       </c>
       <c r="J11" s="27" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K11" s="14" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="106.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A12" s="13" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C12" s="14" t="s">
+        <v>376</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>372</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>418</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="G12" s="14" t="s">
         <v>377</v>
       </c>
-      <c r="D12" s="14" t="s">
-        <v>373</v>
-      </c>
-      <c r="E12" s="14" t="s">
-        <v>420</v>
-      </c>
-      <c r="F12" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="G12" s="14" t="s">
-        <v>378</v>
-      </c>
       <c r="H12" s="14" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I12" s="13" t="s">
         <v>39</v>
       </c>
       <c r="J12" s="27" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K12" s="14" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="106.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A13" s="13" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C13" s="14" t="s">
+        <v>378</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>372</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>419</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="G13" s="14" t="s">
         <v>379</v>
       </c>
-      <c r="D13" s="14" t="s">
-        <v>373</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>421</v>
-      </c>
-      <c r="F13" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="G13" s="14" t="s">
-        <v>380</v>
-      </c>
       <c r="H13" s="14" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I13" s="13" t="s">
         <v>39</v>
       </c>
       <c r="J13" s="27" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K13" s="14" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="106.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A14" s="13" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C14" s="14" t="s">
+        <v>380</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>372</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>420</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="G14" s="14" t="s">
         <v>381</v>
       </c>
-      <c r="D14" s="14" t="s">
-        <v>373</v>
-      </c>
-      <c r="E14" s="14" t="s">
-        <v>422</v>
-      </c>
-      <c r="F14" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="G14" s="14" t="s">
-        <v>382</v>
-      </c>
       <c r="H14" s="14" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I14" s="13" t="s">
         <v>39</v>
       </c>
       <c r="J14" s="27" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K14" s="14" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="106.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A15" s="13" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C15" s="14" t="s">
+        <v>382</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>372</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>421</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="G15" s="14" t="s">
         <v>383</v>
       </c>
-      <c r="D15" s="14" t="s">
-        <v>373</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>423</v>
-      </c>
-      <c r="F15" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="G15" s="14" t="s">
-        <v>384</v>
-      </c>
       <c r="H15" s="14" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I15" s="13" t="s">
         <v>39</v>
       </c>
       <c r="J15" s="27" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K15" s="14" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="106.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="13" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C16" s="14" t="s">
+        <v>384</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>359</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>422</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="G16" s="14" t="s">
         <v>385</v>
       </c>
-      <c r="D16" s="14" t="s">
-        <v>360</v>
-      </c>
-      <c r="E16" s="14" t="s">
-        <v>424</v>
-      </c>
-      <c r="F16" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="G16" s="14" t="s">
+      <c r="H16" s="14" t="s">
         <v>386</v>
       </c>
-      <c r="H16" s="14" t="s">
-        <v>387</v>
-      </c>
       <c r="I16" s="13" t="s">
         <v>39</v>
       </c>
       <c r="J16" s="19" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K16" s="15"/>
     </row>
     <row r="17" spans="1:26" ht="88.9" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="13" t="s">
+        <v>394</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>335</v>
+      </c>
+      <c r="C17" s="14" t="s">
         <v>395</v>
       </c>
-      <c r="B17" s="13" t="s">
-        <v>336</v>
-      </c>
-      <c r="C17" s="14" t="s">
+      <c r="D17" s="14" t="s">
+        <v>359</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>423</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="G17" s="14" t="s">
         <v>396</v>
       </c>
-      <c r="D17" s="14" t="s">
-        <v>360</v>
-      </c>
-      <c r="E17" s="14" t="s">
-        <v>425</v>
-      </c>
-      <c r="F17" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="G17" s="14" t="s">
+      <c r="H17" s="14" t="s">
         <v>397</v>
       </c>
-      <c r="H17" s="14" t="s">
-        <v>398</v>
-      </c>
       <c r="I17" s="13" t="s">
         <v>39</v>
       </c>
       <c r="J17" s="19" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K17" s="15"/>
       <c r="L17" s="9"/>
@@ -6504,34 +7086,34 @@
     </row>
     <row r="18" spans="1:26" ht="124.15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="13" t="s">
+        <v>398</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>335</v>
+      </c>
+      <c r="C18" s="14" t="s">
         <v>399</v>
       </c>
-      <c r="B18" s="13" t="s">
-        <v>336</v>
-      </c>
-      <c r="C18" s="14" t="s">
+      <c r="D18" s="14" t="s">
+        <v>359</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>424</v>
+      </c>
+      <c r="F18" s="14" t="s">
+        <v>426</v>
+      </c>
+      <c r="G18" s="14" t="s">
         <v>400</v>
       </c>
-      <c r="D18" s="14" t="s">
-        <v>360</v>
-      </c>
-      <c r="E18" s="14" t="s">
-        <v>426</v>
-      </c>
-      <c r="F18" s="14" t="s">
-        <v>428</v>
-      </c>
-      <c r="G18" s="14" t="s">
+      <c r="H18" s="14" t="s">
         <v>401</v>
       </c>
-      <c r="H18" s="14" t="s">
-        <v>402</v>
-      </c>
       <c r="I18" s="13" t="s">
         <v>39</v>
       </c>
       <c r="J18" s="19" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K18" s="15"/>
       <c r="L18" s="9"/>
@@ -6552,37 +7134,37 @@
     </row>
     <row r="19" spans="1:26" ht="124.15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A19" s="13" t="s">
+        <v>402</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>335</v>
+      </c>
+      <c r="C19" s="14" t="s">
         <v>403</v>
       </c>
-      <c r="B19" s="13" t="s">
-        <v>336</v>
-      </c>
-      <c r="C19" s="14" t="s">
+      <c r="D19" s="14" t="s">
+        <v>359</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>425</v>
+      </c>
+      <c r="F19" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="G19" s="14" t="s">
         <v>404</v>
       </c>
-      <c r="D19" s="14" t="s">
-        <v>360</v>
-      </c>
-      <c r="E19" s="14" t="s">
-        <v>427</v>
-      </c>
-      <c r="F19" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="G19" s="14" t="s">
+      <c r="H19" s="14" t="s">
         <v>405</v>
       </c>
-      <c r="H19" s="14" t="s">
-        <v>406</v>
-      </c>
       <c r="I19" s="13" t="s">
         <v>39</v>
       </c>
       <c r="J19" s="20" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="K19" s="13" t="s">
-        <v>407</v>
+        <v>768</v>
       </c>
       <c r="L19" s="9"/>
       <c r="M19" s="9"/>
@@ -6602,37 +7184,37 @@
     </row>
     <row r="20" spans="1:26" ht="124.15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A20" s="13" t="s">
+        <v>406</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>335</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>407</v>
+      </c>
+      <c r="D20" s="14" t="s">
         <v>408</v>
       </c>
-      <c r="B20" s="13" t="s">
-        <v>336</v>
-      </c>
-      <c r="C20" s="14" t="s">
+      <c r="E20" s="14" t="s">
         <v>409</v>
       </c>
-      <c r="D20" s="14" t="s">
+      <c r="F20" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="G20" s="14" t="s">
         <v>410</v>
       </c>
-      <c r="E20" s="14" t="s">
-        <v>411</v>
-      </c>
-      <c r="F20" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="G20" s="14" t="s">
-        <v>412</v>
-      </c>
       <c r="H20" s="14" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I20" s="13" t="s">
         <v>27</v>
       </c>
       <c r="J20" s="27" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K20" s="14" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="L20" s="9"/>
       <c r="M20" s="9"/>
@@ -6652,37 +7234,37 @@
     </row>
     <row r="21" spans="1:26" ht="71.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A21" s="13" t="s">
+        <v>411</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>335</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>412</v>
+      </c>
+      <c r="D21" s="14" t="s">
         <v>413</v>
       </c>
-      <c r="B21" s="13" t="s">
-        <v>336</v>
-      </c>
-      <c r="C21" s="14" t="s">
+      <c r="E21" s="14" t="s">
         <v>414</v>
       </c>
-      <c r="D21" s="14" t="s">
+      <c r="F21" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="G21" s="14" t="s">
         <v>415</v>
       </c>
-      <c r="E21" s="14" t="s">
-        <v>416</v>
-      </c>
-      <c r="F21" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="G21" s="14" t="s">
-        <v>417</v>
-      </c>
       <c r="H21" s="14" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I21" s="13" t="s">
         <v>27</v>
       </c>
       <c r="J21" s="27" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K21" s="14" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="L21" s="9"/>
       <c r="M21" s="9"/>
@@ -6709,10 +7291,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD2DB884-0D05-40AC-BF9A-7EF34856050D}">
-  <dimension ref="A1:Z16"/>
+  <dimension ref="A1:Z15"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="77" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="A9" zoomScale="47" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -6731,71 +7313,71 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="2" spans="1:26" s="36" customFormat="1" ht="23.65" thickTop="1" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A2" s="35" t="s">
+    <row r="2" spans="1:26" s="33" customFormat="1" ht="23.65" thickTop="1" thickBot="1" x14ac:dyDescent="0.7">
+      <c r="A2" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="B2" s="32" t="s">
         <v>90</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="C2" s="32" t="s">
         <v>91</v>
       </c>
-      <c r="C2" s="35" t="s">
+      <c r="D2" s="32" t="s">
         <v>92</v>
       </c>
-      <c r="D2" s="35" t="s">
+      <c r="E2" s="32" t="s">
         <v>93</v>
       </c>
-      <c r="E2" s="35" t="s">
+      <c r="F2" s="32" t="s">
         <v>94</v>
       </c>
-      <c r="F2" s="35" t="s">
+      <c r="G2" s="32" t="s">
         <v>95</v>
       </c>
-      <c r="G2" s="35" t="s">
+      <c r="H2" s="32" t="s">
         <v>96</v>
       </c>
-      <c r="H2" s="35" t="s">
+      <c r="I2" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="I2" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2" s="35" t="s">
+      <c r="K2" s="32" t="s">
         <v>98</v>
-      </c>
-      <c r="K2" s="35" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="124.15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A3" s="13" t="s">
+        <v>427</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>428</v>
+      </c>
+      <c r="C3" s="29" t="s">
         <v>429</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="D3" s="29" t="s">
         <v>430</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="E3" s="29" t="s">
         <v>431</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="F3" s="30" t="s">
         <v>432</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="G3" s="29" t="s">
         <v>433</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="H3" s="29" t="s">
         <v>434</v>
       </c>
-      <c r="G3" s="14" t="s">
-        <v>435</v>
-      </c>
-      <c r="H3" s="14" t="s">
-        <v>436</v>
-      </c>
-      <c r="I3" s="13" t="s">
+      <c r="I3" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="J3" s="19" t="s">
-        <v>239</v>
+      <c r="J3" s="31" t="s">
+        <v>238</v>
       </c>
       <c r="K3" s="12"/>
       <c r="L3" s="9"/>
@@ -6814,201 +7396,307 @@
       <c r="Y3" s="9"/>
       <c r="Z3" s="9"/>
     </row>
-    <row r="4" spans="1:26" ht="87.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:26" ht="124.15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A4" s="13" t="s">
+        <v>435</v>
+      </c>
+      <c r="B4" s="40" t="s">
+        <v>428</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>443</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>430</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>444</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>445</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>446</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>447</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" s="19" t="s">
+        <v>238</v>
+      </c>
+      <c r="K4" s="1"/>
+    </row>
+    <row r="5" spans="1:26" ht="106.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A5" s="13" t="s">
+        <v>436</v>
+      </c>
+      <c r="B5" s="40" t="s">
+        <v>428</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>448</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>430</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>449</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>450</v>
+      </c>
+      <c r="H5" s="14" t="s">
+        <v>447</v>
+      </c>
+      <c r="I5" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="J5" s="19" t="s">
+        <v>238</v>
+      </c>
+      <c r="K5" s="1"/>
+    </row>
+    <row r="6" spans="1:26" ht="124.15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A6" s="13" t="s">
         <v>437</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B6" s="40" t="s">
+        <v>428</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>451</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>431</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>432</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>433</v>
+      </c>
+      <c r="H6" s="14" t="s">
+        <v>434</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="J6" s="19" t="s">
+        <v>238</v>
+      </c>
+      <c r="K6" s="1"/>
+    </row>
+    <row r="7" spans="1:26" ht="212.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A7" s="13" t="s">
+        <v>438</v>
+      </c>
+      <c r="B7" s="40" t="s">
+        <v>428</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>453</v>
+      </c>
+      <c r="D7" s="14" t="s">
         <v>430</v>
       </c>
-      <c r="C4" s="33" t="s">
-        <v>449</v>
-      </c>
-      <c r="D4" s="33" t="s">
-        <v>432</v>
-      </c>
-      <c r="E4" s="33" t="s">
-        <v>450</v>
-      </c>
-      <c r="F4" s="32" t="s">
-        <v>451</v>
-      </c>
-      <c r="G4" s="33" t="s">
-        <v>452</v>
-      </c>
-      <c r="H4" s="33" t="s">
-        <v>453</v>
-      </c>
-      <c r="I4" s="32" t="s">
+      <c r="E7" s="14" t="s">
+        <v>454</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>433</v>
+      </c>
+      <c r="H7" s="14" t="s">
+        <v>434</v>
+      </c>
+      <c r="I7" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="J4" s="34" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" ht="75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A5" s="13" t="s">
-        <v>438</v>
-      </c>
-      <c r="B5" s="13" t="s">
+      <c r="J7" s="19" t="s">
+        <v>238</v>
+      </c>
+      <c r="K7" s="1"/>
+    </row>
+    <row r="8" spans="1:26" ht="409.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A8" s="13" t="s">
+        <v>439</v>
+      </c>
+      <c r="B8" s="40" t="s">
+        <v>428</v>
+      </c>
+      <c r="C8" s="35" t="s">
+        <v>719</v>
+      </c>
+      <c r="D8" s="35" t="s">
         <v>430</v>
       </c>
-      <c r="C5" s="33" t="s">
-        <v>454</v>
-      </c>
-      <c r="D5" s="33" t="s">
-        <v>432</v>
-      </c>
-      <c r="E5" s="33" t="s">
-        <v>455</v>
-      </c>
-      <c r="F5" s="32" t="s">
-        <v>102</v>
-      </c>
-      <c r="G5" s="33" t="s">
-        <v>456</v>
-      </c>
-      <c r="H5" s="33" t="s">
-        <v>453</v>
-      </c>
-      <c r="I5" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="J5" s="34" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" ht="87.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="13" t="s">
-        <v>439</v>
-      </c>
-      <c r="B6" s="13" t="s">
+      <c r="E8" s="35" t="s">
+        <v>720</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>721</v>
+      </c>
+      <c r="G8" s="35" t="s">
+        <v>722</v>
+      </c>
+      <c r="H8" s="35" t="s">
+        <v>723</v>
+      </c>
+      <c r="I8" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="J8" s="36" t="s">
+        <v>238</v>
+      </c>
+      <c r="K8" s="1"/>
+    </row>
+    <row r="9" spans="1:26" ht="177" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A9" s="13" t="s">
+        <v>440</v>
+      </c>
+      <c r="B9" s="40" t="s">
+        <v>428</v>
+      </c>
+      <c r="C9" s="35" t="s">
+        <v>724</v>
+      </c>
+      <c r="D9" s="35" t="s">
         <v>430</v>
       </c>
-      <c r="C6" s="33" t="s">
-        <v>457</v>
-      </c>
-      <c r="D6" s="33" t="s">
-        <v>458</v>
-      </c>
-      <c r="E6" s="33" t="s">
-        <v>433</v>
-      </c>
-      <c r="F6" s="32" t="s">
-        <v>434</v>
-      </c>
-      <c r="G6" s="33" t="s">
-        <v>435</v>
-      </c>
-      <c r="H6" s="33" t="s">
-        <v>436</v>
-      </c>
-      <c r="I6" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="J6" s="34" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" ht="149.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A7" s="13" t="s">
-        <v>440</v>
-      </c>
-      <c r="B7" s="13" t="s">
+      <c r="E9" s="35" t="s">
+        <v>725</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="G9" s="35" t="s">
+        <v>726</v>
+      </c>
+      <c r="H9" s="35" t="s">
+        <v>727</v>
+      </c>
+      <c r="I9" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="J9" s="36" t="s">
+        <v>238</v>
+      </c>
+      <c r="K9" s="1"/>
+    </row>
+    <row r="10" spans="1:26" ht="124.15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A10" s="13" t="s">
+        <v>441</v>
+      </c>
+      <c r="B10" s="40" t="s">
+        <v>428</v>
+      </c>
+      <c r="C10" s="35" t="s">
+        <v>728</v>
+      </c>
+      <c r="D10" s="35" t="s">
         <v>430</v>
       </c>
-      <c r="C7" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="D7" s="33" t="s">
-        <v>432</v>
-      </c>
-      <c r="E7" s="33" t="s">
-        <v>460</v>
-      </c>
-      <c r="F7" s="32" t="s">
-        <v>102</v>
-      </c>
-      <c r="G7" s="33" t="s">
-        <v>435</v>
-      </c>
-      <c r="H7" s="33" t="s">
-        <v>436</v>
-      </c>
-      <c r="I7" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="J7" s="34" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" ht="53.65" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="13" t="s">
-        <v>441</v>
-      </c>
-      <c r="B8" s="13" t="s">
+      <c r="E10" s="35" t="s">
+        <v>431</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="G10" s="35" t="s">
+        <v>729</v>
+      </c>
+      <c r="H10" s="35" t="s">
+        <v>730</v>
+      </c>
+      <c r="I10" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="J10" s="36" t="s">
+        <v>238</v>
+      </c>
+      <c r="K10" s="1"/>
+    </row>
+    <row r="11" spans="1:26" ht="124.15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A11" s="13" t="s">
+        <v>442</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>428</v>
+      </c>
+      <c r="C11" s="35" t="s">
+        <v>731</v>
+      </c>
+      <c r="D11" s="35" t="s">
         <v>430</v>
       </c>
-    </row>
-    <row r="9" spans="1:26" ht="53.65" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A9" s="13" t="s">
-        <v>442</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" ht="53.65" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A10" s="13" t="s">
-        <v>443</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" ht="53.65" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A11" s="13" t="s">
-        <v>444</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" ht="53.65" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A12" s="13" t="s">
-        <v>445</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" ht="53.65" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A13" s="13" t="s">
-        <v>446</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26" ht="53.65" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A14" s="13" t="s">
-        <v>447</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" ht="53.65" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A15" s="13" t="s">
-        <v>448</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26" ht="14.65" thickTop="1" x14ac:dyDescent="0.45"/>
+      <c r="E11" s="35" t="s">
+        <v>431</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="G11" s="35" t="s">
+        <v>732</v>
+      </c>
+      <c r="H11" s="35" t="s">
+        <v>733</v>
+      </c>
+      <c r="I11" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="J11" s="36" t="s">
+        <v>238</v>
+      </c>
+      <c r="K11" s="1"/>
+    </row>
+    <row r="12" spans="1:26" ht="18" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="41"/>
+      <c r="B12" s="41"/>
+    </row>
+    <row r="13" spans="1:26" ht="17.649999999999999" x14ac:dyDescent="0.45">
+      <c r="A13" s="41"/>
+      <c r="B13" s="41"/>
+    </row>
+    <row r="14" spans="1:26" ht="17.649999999999999" x14ac:dyDescent="0.45">
+      <c r="A14" s="41"/>
+      <c r="B14" s="41"/>
+    </row>
+    <row r="15" spans="1:26" ht="17.649999999999999" x14ac:dyDescent="0.45">
+      <c r="A15" s="41"/>
+      <c r="B15" s="41"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="J8:J11">
+    <cfRule type="containsText" dxfId="15" priority="1" operator="containsText" text="NOT TESTED">
+      <formula>NOT(ISERROR(SEARCH("NOT TESTED",J8)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="14" priority="2" operator="containsText" text="BLOCKED">
+      <formula>NOT(ISERROR(SEARCH("BLOCKED",J8)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="13" priority="3" operator="containsText" text="FAIL">
+      <formula>NOT(ISERROR(SEARCH("FAIL",J8)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="12" priority="4" operator="containsText" text="PASS">
+      <formula>NOT(ISERROR(SEARCH("PASS",J8)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J8:J11" xr:uid="{323DEBEA-3EB5-4A6E-AC12-3E151F6EC13D}">
+      <formula1>"PASS, FAIL, Blocked, Not Tested"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -7017,7 +7705,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E30ECE6A-2667-4B75-B9F8-5009A703F4FC}">
   <dimension ref="A1:K28"/>
   <sheetViews>
-    <sheetView zoomScale="70" workbookViewId="0">
+    <sheetView topLeftCell="A26" zoomScale="61" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
@@ -7037,862 +7725,848 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="2" spans="1:11" s="36" customFormat="1" ht="23.65" thickTop="1" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A2" s="35" t="s">
+    <row r="2" spans="1:11" s="33" customFormat="1" ht="23.65" thickTop="1" thickBot="1" x14ac:dyDescent="0.7">
+      <c r="A2" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="B2" s="32" t="s">
         <v>90</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="C2" s="32" t="s">
         <v>91</v>
       </c>
-      <c r="C2" s="35" t="s">
+      <c r="D2" s="32" t="s">
         <v>92</v>
       </c>
-      <c r="D2" s="35" t="s">
+      <c r="E2" s="32" t="s">
         <v>93</v>
       </c>
-      <c r="E2" s="35" t="s">
+      <c r="F2" s="32" t="s">
         <v>94</v>
       </c>
-      <c r="F2" s="35" t="s">
+      <c r="G2" s="32" t="s">
         <v>95</v>
       </c>
-      <c r="G2" s="35" t="s">
+      <c r="H2" s="32" t="s">
         <v>96</v>
       </c>
-      <c r="H2" s="35" t="s">
+      <c r="I2" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="I2" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2" s="35" t="s">
+      <c r="K2" s="32" t="s">
         <v>98</v>
       </c>
-      <c r="K2" s="35" t="s">
-        <v>99</v>
-      </c>
     </row>
     <row r="3" spans="1:11" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="4" spans="1:11" s="40" customFormat="1" ht="156.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:11" s="34" customFormat="1" ht="156.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="16" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>462</v>
-      </c>
-      <c r="C4" s="41" t="s">
-        <v>463</v>
-      </c>
-      <c r="D4" s="41" t="s">
+        <v>456</v>
+      </c>
+      <c r="C4" s="35" t="s">
+        <v>457</v>
+      </c>
+      <c r="D4" s="35" t="s">
+        <v>430</v>
+      </c>
+      <c r="E4" s="35" t="s">
+        <v>458</v>
+      </c>
+      <c r="F4" s="13" t="s">
         <v>432</v>
       </c>
-      <c r="E4" s="41" t="s">
-        <v>464</v>
-      </c>
-      <c r="F4" s="13" t="s">
-        <v>434</v>
-      </c>
-      <c r="G4" s="41" t="s">
-        <v>465</v>
-      </c>
-      <c r="H4" s="41" t="s">
-        <v>466</v>
+      <c r="G4" s="35" t="s">
+        <v>459</v>
+      </c>
+      <c r="H4" s="35" t="s">
+        <v>460</v>
       </c>
       <c r="I4" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="J4" s="42" t="s">
-        <v>239</v>
-      </c>
-      <c r="K4" s="43"/>
-    </row>
-    <row r="5" spans="1:11" s="40" customFormat="1" ht="409.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="J4" s="36" t="s">
+        <v>238</v>
+      </c>
+      <c r="K4" s="37"/>
+    </row>
+    <row r="5" spans="1:11" s="34" customFormat="1" ht="409.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="16" t="s">
+        <v>461</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>456</v>
+      </c>
+      <c r="C5" s="35" t="s">
+        <v>462</v>
+      </c>
+      <c r="D5" s="35" t="s">
+        <v>430</v>
+      </c>
+      <c r="E5" s="35" t="s">
+        <v>463</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>432</v>
+      </c>
+      <c r="G5" s="35" t="s">
+        <v>459</v>
+      </c>
+      <c r="H5" s="35" t="s">
+        <v>460</v>
+      </c>
+      <c r="I5" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="J5" s="36" t="s">
+        <v>238</v>
+      </c>
+      <c r="K5" s="37"/>
+    </row>
+    <row r="6" spans="1:11" s="34" customFormat="1" ht="409.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="16" t="s">
+        <v>464</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>456</v>
+      </c>
+      <c r="C6" s="35" t="s">
+        <v>465</v>
+      </c>
+      <c r="D6" s="35" t="s">
+        <v>430</v>
+      </c>
+      <c r="E6" s="35" t="s">
+        <v>466</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>432</v>
+      </c>
+      <c r="G6" s="35" t="s">
+        <v>459</v>
+      </c>
+      <c r="H6" s="35" t="s">
+        <v>460</v>
+      </c>
+      <c r="I6" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="J6" s="36" t="s">
+        <v>238</v>
+      </c>
+      <c r="K6" s="37"/>
+    </row>
+    <row r="7" spans="1:11" s="34" customFormat="1" ht="409.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="16" t="s">
         <v>467</v>
       </c>
-      <c r="B5" s="13" t="s">
-        <v>462</v>
-      </c>
-      <c r="C5" s="41" t="s">
+      <c r="B7" s="13" t="s">
+        <v>456</v>
+      </c>
+      <c r="C7" s="35" t="s">
         <v>468</v>
       </c>
-      <c r="D5" s="41" t="s">
+      <c r="D7" s="35" t="s">
+        <v>430</v>
+      </c>
+      <c r="E7" s="35" t="s">
+        <v>469</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="G7" s="35" t="s">
+        <v>459</v>
+      </c>
+      <c r="H7" s="35" t="s">
+        <v>460</v>
+      </c>
+      <c r="I7" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="J7" s="36" t="s">
+        <v>238</v>
+      </c>
+      <c r="K7" s="37"/>
+    </row>
+    <row r="8" spans="1:11" s="34" customFormat="1" ht="409.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="16" t="s">
+        <v>470</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>456</v>
+      </c>
+      <c r="C8" s="35" t="s">
+        <v>471</v>
+      </c>
+      <c r="D8" s="35" t="s">
+        <v>430</v>
+      </c>
+      <c r="E8" s="35" t="s">
+        <v>472</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="G8" s="35" t="s">
+        <v>459</v>
+      </c>
+      <c r="H8" s="35" t="s">
+        <v>460</v>
+      </c>
+      <c r="I8" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="J8" s="36" t="s">
+        <v>238</v>
+      </c>
+      <c r="K8" s="37"/>
+    </row>
+    <row r="9" spans="1:11" s="34" customFormat="1" ht="156.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="16" t="s">
+        <v>473</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>456</v>
+      </c>
+      <c r="C9" s="35" t="s">
+        <v>474</v>
+      </c>
+      <c r="D9" s="35" t="s">
+        <v>430</v>
+      </c>
+      <c r="E9" s="35" t="s">
+        <v>475</v>
+      </c>
+      <c r="F9" s="13" t="s">
         <v>432</v>
       </c>
-      <c r="E5" s="41" t="s">
-        <v>469</v>
-      </c>
-      <c r="F5" s="13" t="s">
-        <v>434</v>
-      </c>
-      <c r="G5" s="41" t="s">
-        <v>465</v>
-      </c>
-      <c r="H5" s="41" t="s">
-        <v>466</v>
-      </c>
-      <c r="I5" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="J5" s="42" t="s">
-        <v>239</v>
-      </c>
-      <c r="K5" s="43"/>
-    </row>
-    <row r="6" spans="1:11" s="40" customFormat="1" ht="409.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="16" t="s">
-        <v>470</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>462</v>
-      </c>
-      <c r="C6" s="41" t="s">
-        <v>471</v>
-      </c>
-      <c r="D6" s="41" t="s">
+      <c r="G9" s="35" t="s">
+        <v>459</v>
+      </c>
+      <c r="H9" s="35" t="s">
+        <v>460</v>
+      </c>
+      <c r="I9" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="J9" s="36" t="s">
+        <v>238</v>
+      </c>
+      <c r="K9" s="37"/>
+    </row>
+    <row r="10" spans="1:11" s="34" customFormat="1" ht="282.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="16" t="s">
+        <v>476</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>456</v>
+      </c>
+      <c r="C10" s="35" t="s">
+        <v>477</v>
+      </c>
+      <c r="D10" s="35" t="s">
+        <v>430</v>
+      </c>
+      <c r="E10" s="35" t="s">
+        <v>478</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="G10" s="35" t="s">
+        <v>459</v>
+      </c>
+      <c r="H10" s="35" t="s">
+        <v>460</v>
+      </c>
+      <c r="I10" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="J10" s="36" t="s">
+        <v>238</v>
+      </c>
+      <c r="K10" s="37"/>
+    </row>
+    <row r="11" spans="1:11" s="34" customFormat="1" ht="194.65" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="16" t="s">
+        <v>479</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>456</v>
+      </c>
+      <c r="C11" s="35" t="s">
+        <v>480</v>
+      </c>
+      <c r="D11" s="35" t="s">
+        <v>430</v>
+      </c>
+      <c r="E11" s="35" t="s">
+        <v>481</v>
+      </c>
+      <c r="F11" s="13" t="s">
         <v>432</v>
       </c>
-      <c r="E6" s="41" t="s">
-        <v>472</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>434</v>
-      </c>
-      <c r="G6" s="41" t="s">
-        <v>465</v>
-      </c>
-      <c r="H6" s="41" t="s">
-        <v>466</v>
-      </c>
-      <c r="I6" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="J6" s="42" t="s">
-        <v>239</v>
-      </c>
-      <c r="K6" s="43"/>
-    </row>
-    <row r="7" spans="1:11" s="40" customFormat="1" ht="409.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="16" t="s">
-        <v>473</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>462</v>
-      </c>
-      <c r="C7" s="41" t="s">
-        <v>474</v>
-      </c>
-      <c r="D7" s="41" t="s">
+      <c r="G11" s="35" t="s">
+        <v>482</v>
+      </c>
+      <c r="H11" s="35" t="s">
+        <v>483</v>
+      </c>
+      <c r="I11" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="J11" s="36" t="s">
+        <v>238</v>
+      </c>
+      <c r="K11" s="37"/>
+    </row>
+    <row r="12" spans="1:11" s="34" customFormat="1" ht="177" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="16" t="s">
+        <v>484</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>456</v>
+      </c>
+      <c r="C12" s="35" t="s">
+        <v>485</v>
+      </c>
+      <c r="D12" s="35" t="s">
+        <v>430</v>
+      </c>
+      <c r="E12" s="35" t="s">
+        <v>486</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="G12" s="35" t="s">
+        <v>482</v>
+      </c>
+      <c r="H12" s="35" t="s">
+        <v>483</v>
+      </c>
+      <c r="I12" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="J12" s="36" t="s">
+        <v>238</v>
+      </c>
+      <c r="K12" s="37"/>
+    </row>
+    <row r="13" spans="1:11" s="34" customFormat="1" ht="177" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="16" t="s">
+        <v>487</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>456</v>
+      </c>
+      <c r="C13" s="35" t="s">
+        <v>488</v>
+      </c>
+      <c r="D13" s="35" t="s">
+        <v>430</v>
+      </c>
+      <c r="E13" s="35" t="s">
+        <v>489</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="G13" s="35" t="s">
+        <v>490</v>
+      </c>
+      <c r="H13" s="35" t="s">
+        <v>491</v>
+      </c>
+      <c r="I13" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="J13" s="36" t="s">
+        <v>238</v>
+      </c>
+      <c r="K13" s="37"/>
+    </row>
+    <row r="14" spans="1:11" s="34" customFormat="1" ht="194.65" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="16" t="s">
+        <v>492</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>456</v>
+      </c>
+      <c r="C14" s="35" t="s">
+        <v>493</v>
+      </c>
+      <c r="D14" s="35" t="s">
+        <v>430</v>
+      </c>
+      <c r="E14" s="35" t="s">
+        <v>494</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="G14" s="35" t="s">
+        <v>495</v>
+      </c>
+      <c r="H14" s="35" t="s">
+        <v>496</v>
+      </c>
+      <c r="I14" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="J14" s="36" t="s">
+        <v>238</v>
+      </c>
+      <c r="K14" s="37"/>
+    </row>
+    <row r="15" spans="1:11" s="34" customFormat="1" ht="229.9" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="16" t="s">
+        <v>497</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>456</v>
+      </c>
+      <c r="C15" s="35" t="s">
+        <v>498</v>
+      </c>
+      <c r="D15" s="35" t="s">
+        <v>430</v>
+      </c>
+      <c r="E15" s="35" t="s">
+        <v>499</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="G15" s="35" t="s">
+        <v>500</v>
+      </c>
+      <c r="H15" s="35" t="s">
+        <v>501</v>
+      </c>
+      <c r="I15" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="J15" s="36" t="s">
+        <v>238</v>
+      </c>
+      <c r="K15" s="37"/>
+    </row>
+    <row r="16" spans="1:11" s="34" customFormat="1" ht="156" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="16" t="s">
+        <v>502</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>456</v>
+      </c>
+      <c r="C16" s="35" t="s">
+        <v>503</v>
+      </c>
+      <c r="D16" s="35" t="s">
+        <v>430</v>
+      </c>
+      <c r="E16" s="35" t="s">
+        <v>504</v>
+      </c>
+      <c r="F16" s="13" t="s">
         <v>432</v>
       </c>
-      <c r="E7" s="41" t="s">
-        <v>475</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="G7" s="41" t="s">
-        <v>465</v>
-      </c>
-      <c r="H7" s="41" t="s">
-        <v>466</v>
-      </c>
-      <c r="I7" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="J7" s="42" t="s">
-        <v>239</v>
-      </c>
-      <c r="K7" s="43"/>
-    </row>
-    <row r="8" spans="1:11" s="40" customFormat="1" ht="409.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="16" t="s">
-        <v>476</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>462</v>
-      </c>
-      <c r="C8" s="41" t="s">
-        <v>477</v>
-      </c>
-      <c r="D8" s="41" t="s">
+      <c r="G16" s="35" t="s">
+        <v>505</v>
+      </c>
+      <c r="H16" s="35" t="s">
+        <v>506</v>
+      </c>
+      <c r="I16" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="J16" s="36" t="s">
+        <v>238</v>
+      </c>
+      <c r="K16" s="37"/>
+    </row>
+    <row r="17" spans="1:11" s="34" customFormat="1" ht="156" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="16" t="s">
+        <v>507</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>456</v>
+      </c>
+      <c r="C17" s="35" t="s">
+        <v>508</v>
+      </c>
+      <c r="D17" s="35" t="s">
+        <v>430</v>
+      </c>
+      <c r="E17" s="35" t="s">
+        <v>509</v>
+      </c>
+      <c r="F17" s="13" t="s">
         <v>432</v>
       </c>
-      <c r="E8" s="41" t="s">
-        <v>478</v>
-      </c>
-      <c r="F8" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="G8" s="41" t="s">
-        <v>465</v>
-      </c>
-      <c r="H8" s="41" t="s">
-        <v>466</v>
-      </c>
-      <c r="I8" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="J8" s="42" t="s">
-        <v>239</v>
-      </c>
-      <c r="K8" s="43"/>
-    </row>
-    <row r="9" spans="1:11" s="40" customFormat="1" ht="156.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="16" t="s">
-        <v>479</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>462</v>
-      </c>
-      <c r="C9" s="41" t="s">
-        <v>480</v>
-      </c>
-      <c r="D9" s="41" t="s">
-        <v>432</v>
-      </c>
-      <c r="E9" s="41" t="s">
-        <v>481</v>
-      </c>
-      <c r="F9" s="13" t="s">
-        <v>434</v>
-      </c>
-      <c r="G9" s="41" t="s">
-        <v>465</v>
-      </c>
-      <c r="H9" s="41" t="s">
-        <v>466</v>
-      </c>
-      <c r="I9" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="J9" s="42" t="s">
-        <v>239</v>
-      </c>
-      <c r="K9" s="43"/>
-    </row>
-    <row r="10" spans="1:11" s="40" customFormat="1" ht="282.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="16" t="s">
-        <v>482</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>462</v>
-      </c>
-      <c r="C10" s="41" t="s">
-        <v>483</v>
-      </c>
-      <c r="D10" s="41" t="s">
-        <v>432</v>
-      </c>
-      <c r="E10" s="41" t="s">
-        <v>484</v>
-      </c>
-      <c r="F10" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="G10" s="41" t="s">
-        <v>465</v>
-      </c>
-      <c r="H10" s="41" t="s">
-        <v>466</v>
-      </c>
-      <c r="I10" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="J10" s="42" t="s">
-        <v>239</v>
-      </c>
-      <c r="K10" s="43"/>
-    </row>
-    <row r="11" spans="1:11" s="40" customFormat="1" ht="194.65" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="16" t="s">
-        <v>485</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>462</v>
-      </c>
-      <c r="C11" s="41" t="s">
-        <v>486</v>
-      </c>
-      <c r="D11" s="41" t="s">
-        <v>432</v>
-      </c>
-      <c r="E11" s="41" t="s">
-        <v>487</v>
-      </c>
-      <c r="F11" s="13" t="s">
-        <v>434</v>
-      </c>
-      <c r="G11" s="41" t="s">
-        <v>488</v>
-      </c>
-      <c r="H11" s="41" t="s">
-        <v>489</v>
-      </c>
-      <c r="I11" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="J11" s="42" t="s">
-        <v>239</v>
-      </c>
-      <c r="K11" s="43"/>
-    </row>
-    <row r="12" spans="1:11" s="40" customFormat="1" ht="177" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="16" t="s">
-        <v>490</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>462</v>
-      </c>
-      <c r="C12" s="41" t="s">
-        <v>491</v>
-      </c>
-      <c r="D12" s="41" t="s">
-        <v>432</v>
-      </c>
-      <c r="E12" s="41" t="s">
-        <v>492</v>
-      </c>
-      <c r="F12" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="G12" s="41" t="s">
-        <v>488</v>
-      </c>
-      <c r="H12" s="41" t="s">
-        <v>489</v>
-      </c>
-      <c r="I12" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="J12" s="42" t="s">
-        <v>239</v>
-      </c>
-      <c r="K12" s="43"/>
-    </row>
-    <row r="13" spans="1:11" s="40" customFormat="1" ht="177" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="16" t="s">
-        <v>493</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>462</v>
-      </c>
-      <c r="C13" s="41" t="s">
-        <v>494</v>
-      </c>
-      <c r="D13" s="41" t="s">
-        <v>432</v>
-      </c>
-      <c r="E13" s="41" t="s">
-        <v>495</v>
-      </c>
-      <c r="F13" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="G13" s="41" t="s">
-        <v>496</v>
-      </c>
-      <c r="H13" s="41" t="s">
-        <v>497</v>
-      </c>
-      <c r="I13" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="J13" s="42" t="s">
-        <v>239</v>
-      </c>
-      <c r="K13" s="43"/>
-    </row>
-    <row r="14" spans="1:11" s="40" customFormat="1" ht="194.65" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="16" t="s">
-        <v>498</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>462</v>
-      </c>
-      <c r="C14" s="41" t="s">
-        <v>499</v>
-      </c>
-      <c r="D14" s="41" t="s">
-        <v>432</v>
-      </c>
-      <c r="E14" s="41" t="s">
-        <v>500</v>
-      </c>
-      <c r="F14" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="G14" s="41" t="s">
-        <v>501</v>
-      </c>
-      <c r="H14" s="41" t="s">
-        <v>502</v>
-      </c>
-      <c r="I14" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="J14" s="42" t="s">
-        <v>239</v>
-      </c>
-      <c r="K14" s="43"/>
-    </row>
-    <row r="15" spans="1:11" s="40" customFormat="1" ht="229.9" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="16" t="s">
-        <v>503</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>462</v>
-      </c>
-      <c r="C15" s="41" t="s">
-        <v>504</v>
-      </c>
-      <c r="D15" s="41" t="s">
-        <v>432</v>
-      </c>
-      <c r="E15" s="41" t="s">
-        <v>505</v>
-      </c>
-      <c r="F15" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="G15" s="41" t="s">
-        <v>506</v>
-      </c>
-      <c r="H15" s="41" t="s">
-        <v>507</v>
-      </c>
-      <c r="I15" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="J15" s="42" t="s">
-        <v>239</v>
-      </c>
-      <c r="K15" s="43"/>
-    </row>
-    <row r="16" spans="1:11" s="40" customFormat="1" ht="156" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="16" t="s">
-        <v>508</v>
-      </c>
-      <c r="B16" s="13" t="s">
-        <v>462</v>
-      </c>
-      <c r="C16" s="41" t="s">
-        <v>509</v>
-      </c>
-      <c r="D16" s="41" t="s">
-        <v>432</v>
-      </c>
-      <c r="E16" s="41" t="s">
+      <c r="G17" s="35" t="s">
         <v>510</v>
       </c>
-      <c r="F16" s="13" t="s">
-        <v>434</v>
-      </c>
-      <c r="G16" s="41" t="s">
+      <c r="H17" s="35" t="s">
         <v>511</v>
-      </c>
-      <c r="H16" s="41" t="s">
-        <v>512</v>
-      </c>
-      <c r="I16" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="J16" s="42" t="s">
-        <v>239</v>
-      </c>
-      <c r="K16" s="43"/>
-    </row>
-    <row r="17" spans="1:11" s="40" customFormat="1" ht="156" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="16" t="s">
-        <v>513</v>
-      </c>
-      <c r="B17" s="13" t="s">
-        <v>462</v>
-      </c>
-      <c r="C17" s="41" t="s">
-        <v>514</v>
-      </c>
-      <c r="D17" s="41" t="s">
-        <v>432</v>
-      </c>
-      <c r="E17" s="41" t="s">
-        <v>515</v>
-      </c>
-      <c r="F17" s="13" t="s">
-        <v>434</v>
-      </c>
-      <c r="G17" s="41" t="s">
-        <v>516</v>
-      </c>
-      <c r="H17" s="41" t="s">
-        <v>517</v>
       </c>
       <c r="I17" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="J17" s="42" t="s">
-        <v>239</v>
-      </c>
-      <c r="K17" s="43"/>
-    </row>
-    <row r="18" spans="1:11" s="40" customFormat="1" ht="216.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="J17" s="36" t="s">
+        <v>238</v>
+      </c>
+      <c r="K17" s="37"/>
+    </row>
+    <row r="18" spans="1:11" s="34" customFormat="1" ht="216.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="16" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>462</v>
-      </c>
-      <c r="C18" s="41" t="s">
-        <v>519</v>
-      </c>
-      <c r="D18" s="41" t="s">
-        <v>432</v>
-      </c>
-      <c r="E18" s="41" t="s">
-        <v>520</v>
+        <v>456</v>
+      </c>
+      <c r="C18" s="35" t="s">
+        <v>513</v>
+      </c>
+      <c r="D18" s="35" t="s">
+        <v>430</v>
+      </c>
+      <c r="E18" s="35" t="s">
+        <v>514</v>
       </c>
       <c r="F18" s="13" t="s">
-        <v>521</v>
-      </c>
-      <c r="G18" s="41" t="s">
-        <v>522</v>
-      </c>
-      <c r="H18" s="41" t="s">
-        <v>523</v>
+        <v>515</v>
+      </c>
+      <c r="G18" s="35" t="s">
+        <v>516</v>
+      </c>
+      <c r="H18" s="35" t="s">
+        <v>517</v>
       </c>
       <c r="I18" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="J18" s="42" t="s">
-        <v>239</v>
-      </c>
-      <c r="K18" s="43"/>
-    </row>
-    <row r="19" spans="1:11" s="40" customFormat="1" ht="409.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="J18" s="36" t="s">
+        <v>238</v>
+      </c>
+      <c r="K18" s="37"/>
+    </row>
+    <row r="19" spans="1:11" s="34" customFormat="1" ht="409.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="16" t="s">
+        <v>518</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>456</v>
+      </c>
+      <c r="C19" s="35" t="s">
+        <v>519</v>
+      </c>
+      <c r="D19" s="35" t="s">
+        <v>430</v>
+      </c>
+      <c r="E19" s="35" t="s">
+        <v>520</v>
+      </c>
+      <c r="F19" s="13" t="s">
+        <v>521</v>
+      </c>
+      <c r="G19" s="35" t="s">
+        <v>522</v>
+      </c>
+      <c r="H19" s="35" t="s">
+        <v>523</v>
+      </c>
+      <c r="I19" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="J19" s="36" t="s">
+        <v>238</v>
+      </c>
+      <c r="K19" s="37"/>
+    </row>
+    <row r="20" spans="1:11" s="34" customFormat="1" ht="174" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="16" t="s">
         <v>524</v>
       </c>
-      <c r="B19" s="13" t="s">
-        <v>462</v>
-      </c>
-      <c r="C19" s="41" t="s">
+      <c r="B20" s="13" t="s">
+        <v>456</v>
+      </c>
+      <c r="C20" s="35" t="s">
         <v>525</v>
       </c>
-      <c r="D19" s="41" t="s">
-        <v>432</v>
-      </c>
-      <c r="E19" s="41" t="s">
+      <c r="D20" s="35" t="s">
+        <v>430</v>
+      </c>
+      <c r="E20" s="35" t="s">
         <v>526</v>
       </c>
-      <c r="F19" s="13" t="s">
+      <c r="F20" s="13" t="s">
         <v>527</v>
       </c>
-      <c r="G19" s="41" t="s">
+      <c r="G20" s="35" t="s">
         <v>528</v>
       </c>
-      <c r="H19" s="41" t="s">
+      <c r="H20" s="35" t="s">
         <v>529</v>
       </c>
-      <c r="I19" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="J19" s="42" t="s">
-        <v>239</v>
-      </c>
-      <c r="K19" s="43"/>
-    </row>
-    <row r="20" spans="1:11" s="40" customFormat="1" ht="174" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="16" t="s">
+      <c r="I20" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="J20" s="36" t="s">
+        <v>238</v>
+      </c>
+      <c r="K20" s="37"/>
+    </row>
+    <row r="21" spans="1:11" s="34" customFormat="1" ht="409.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="16" t="s">
         <v>530</v>
       </c>
-      <c r="B20" s="13" t="s">
-        <v>462</v>
-      </c>
-      <c r="C20" s="41" t="s">
+      <c r="B21" s="13" t="s">
+        <v>456</v>
+      </c>
+      <c r="C21" s="35" t="s">
         <v>531</v>
       </c>
-      <c r="D20" s="41" t="s">
-        <v>432</v>
-      </c>
-      <c r="E20" s="41" t="s">
+      <c r="D21" s="35" t="s">
+        <v>430</v>
+      </c>
+      <c r="E21" s="35" t="s">
         <v>532</v>
       </c>
-      <c r="F20" s="13" t="s">
+      <c r="F21" s="13" t="s">
         <v>533</v>
       </c>
-      <c r="G20" s="41" t="s">
+      <c r="G21" s="35" t="s">
         <v>534</v>
       </c>
-      <c r="H20" s="41" t="s">
+      <c r="H21" s="35" t="s">
         <v>535</v>
       </c>
-      <c r="I20" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="J20" s="42" t="s">
-        <v>239</v>
-      </c>
-      <c r="K20" s="43"/>
-    </row>
-    <row r="21" spans="1:11" s="40" customFormat="1" ht="409.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="16" t="s">
+      <c r="I21" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="J21" s="36" t="s">
+        <v>238</v>
+      </c>
+      <c r="K21" s="37"/>
+    </row>
+    <row r="22" spans="1:11" s="34" customFormat="1" ht="169.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="16" t="s">
         <v>536</v>
       </c>
-      <c r="B21" s="13" t="s">
-        <v>462</v>
-      </c>
-      <c r="C21" s="41" t="s">
+      <c r="B22" s="13" t="s">
+        <v>456</v>
+      </c>
+      <c r="C22" s="35" t="s">
         <v>537</v>
       </c>
-      <c r="D21" s="41" t="s">
-        <v>432</v>
-      </c>
-      <c r="E21" s="41" t="s">
+      <c r="D22" s="35" t="s">
+        <v>430</v>
+      </c>
+      <c r="E22" s="35" t="s">
         <v>538</v>
       </c>
-      <c r="F21" s="13" t="s">
+      <c r="F22" s="13" t="s">
         <v>539</v>
       </c>
-      <c r="G21" s="41" t="s">
+      <c r="G22" s="35" t="s">
         <v>540</v>
       </c>
-      <c r="H21" s="41" t="s">
+      <c r="H22" s="35" t="s">
         <v>541</v>
       </c>
-      <c r="I21" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="J21" s="42" t="s">
-        <v>239</v>
-      </c>
-      <c r="K21" s="43"/>
-    </row>
-    <row r="22" spans="1:11" s="40" customFormat="1" ht="169.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="16" t="s">
+      <c r="I22" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="J22" s="36" t="s">
+        <v>238</v>
+      </c>
+      <c r="K22" s="37"/>
+    </row>
+    <row r="23" spans="1:11" s="34" customFormat="1" ht="353.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="16" t="s">
         <v>542</v>
       </c>
-      <c r="B22" s="13" t="s">
-        <v>462</v>
-      </c>
-      <c r="C22" s="41" t="s">
+      <c r="B23" s="13" t="s">
+        <v>456</v>
+      </c>
+      <c r="C23" s="35" t="s">
         <v>543</v>
       </c>
-      <c r="D22" s="41" t="s">
-        <v>432</v>
-      </c>
-      <c r="E22" s="41" t="s">
+      <c r="D23" s="35" t="s">
+        <v>430</v>
+      </c>
+      <c r="E23" s="35" t="s">
         <v>544</v>
       </c>
-      <c r="F22" s="13" t="s">
+      <c r="F23" s="13" t="s">
+        <v>521</v>
+      </c>
+      <c r="G23" s="35" t="s">
         <v>545</v>
       </c>
-      <c r="G22" s="41" t="s">
+      <c r="H23" s="35" t="s">
         <v>546</v>
       </c>
-      <c r="H22" s="41" t="s">
+      <c r="I23" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="J23" s="36" t="s">
+        <v>238</v>
+      </c>
+      <c r="K23" s="37"/>
+    </row>
+    <row r="24" spans="1:11" s="34" customFormat="1" ht="353.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="16" t="s">
         <v>547</v>
       </c>
-      <c r="I22" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="J22" s="42" t="s">
-        <v>239</v>
-      </c>
-      <c r="K22" s="43"/>
-    </row>
-    <row r="23" spans="1:11" s="40" customFormat="1" ht="353.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="16" t="s">
+      <c r="B24" s="13" t="s">
+        <v>456</v>
+      </c>
+      <c r="C24" s="35" t="s">
         <v>548</v>
       </c>
-      <c r="B23" s="13" t="s">
-        <v>462</v>
-      </c>
-      <c r="C23" s="41" t="s">
+      <c r="D24" s="35" t="s">
+        <v>430</v>
+      </c>
+      <c r="E24" s="35" t="s">
         <v>549</v>
       </c>
-      <c r="D23" s="41" t="s">
-        <v>432</v>
-      </c>
-      <c r="E23" s="41" t="s">
+      <c r="F24" s="13" t="s">
+        <v>521</v>
+      </c>
+      <c r="G24" s="35" t="s">
         <v>550</v>
       </c>
-      <c r="F23" s="13" t="s">
-        <v>527</v>
-      </c>
-      <c r="G23" s="41" t="s">
+      <c r="H24" s="35" t="s">
         <v>551</v>
-      </c>
-      <c r="H23" s="41" t="s">
-        <v>552</v>
-      </c>
-      <c r="I23" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="J23" s="42" t="s">
-        <v>239</v>
-      </c>
-      <c r="K23" s="43"/>
-    </row>
-    <row r="24" spans="1:11" s="40" customFormat="1" ht="353.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="16" t="s">
-        <v>553</v>
-      </c>
-      <c r="B24" s="13" t="s">
-        <v>462</v>
-      </c>
-      <c r="C24" s="41" t="s">
-        <v>554</v>
-      </c>
-      <c r="D24" s="41" t="s">
-        <v>432</v>
-      </c>
-      <c r="E24" s="41" t="s">
-        <v>555</v>
-      </c>
-      <c r="F24" s="13" t="s">
-        <v>527</v>
-      </c>
-      <c r="G24" s="41" t="s">
-        <v>556</v>
-      </c>
-      <c r="H24" s="41" t="s">
-        <v>557</v>
       </c>
       <c r="I24" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="J24" s="42" t="s">
-        <v>239</v>
-      </c>
-      <c r="K24" s="43"/>
-    </row>
-    <row r="25" spans="1:11" s="40" customFormat="1" ht="370.9" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="J24" s="36" t="s">
+        <v>238</v>
+      </c>
+      <c r="K24" s="37"/>
+    </row>
+    <row r="25" spans="1:11" s="34" customFormat="1" ht="370.9" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="16" t="s">
+        <v>552</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>456</v>
+      </c>
+      <c r="C25" s="35" t="s">
+        <v>553</v>
+      </c>
+      <c r="D25" s="35" t="s">
+        <v>430</v>
+      </c>
+      <c r="E25" s="35" t="s">
+        <v>554</v>
+      </c>
+      <c r="F25" s="13" t="s">
+        <v>521</v>
+      </c>
+      <c r="G25" s="35" t="s">
+        <v>555</v>
+      </c>
+      <c r="H25" s="35" t="s">
+        <v>555</v>
+      </c>
+      <c r="I25" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="J25" s="36" t="s">
+        <v>238</v>
+      </c>
+      <c r="K25" s="37"/>
+    </row>
+    <row r="26" spans="1:11" s="34" customFormat="1" ht="282.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="16" t="s">
+        <v>556</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>456</v>
+      </c>
+      <c r="C26" s="35" t="s">
+        <v>557</v>
+      </c>
+      <c r="D26" s="35" t="s">
+        <v>430</v>
+      </c>
+      <c r="E26" s="35" t="s">
         <v>558</v>
       </c>
-      <c r="B25" s="13" t="s">
-        <v>462</v>
-      </c>
-      <c r="C25" s="41" t="s">
+      <c r="F26" s="13" t="s">
+        <v>521</v>
+      </c>
+      <c r="G26" s="35" t="s">
         <v>559</v>
       </c>
-      <c r="D25" s="41" t="s">
-        <v>432</v>
-      </c>
-      <c r="E25" s="41" t="s">
+      <c r="H26" s="35" t="s">
         <v>560</v>
       </c>
-      <c r="F25" s="13" t="s">
-        <v>527</v>
-      </c>
-      <c r="G25" s="41" t="s">
+      <c r="I26" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="J26" s="36" t="s">
+        <v>238</v>
+      </c>
+      <c r="K26" s="37"/>
+    </row>
+    <row r="27" spans="1:11" s="34" customFormat="1" ht="282.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="16" t="s">
         <v>561</v>
       </c>
-      <c r="H25" s="41" t="s">
-        <v>561</v>
-      </c>
-      <c r="I25" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="J25" s="42" t="s">
-        <v>239</v>
-      </c>
-      <c r="K25" s="43"/>
-    </row>
-    <row r="26" spans="1:11" s="40" customFormat="1" ht="282.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="16" t="s">
+      <c r="B27" s="13" t="s">
+        <v>456</v>
+      </c>
+      <c r="C27" s="35" t="s">
         <v>562</v>
       </c>
-      <c r="B26" s="13" t="s">
-        <v>462</v>
-      </c>
-      <c r="C26" s="41" t="s">
+      <c r="D27" s="35" t="s">
+        <v>430</v>
+      </c>
+      <c r="E27" s="35" t="s">
+        <v>558</v>
+      </c>
+      <c r="F27" s="13" t="s">
+        <v>521</v>
+      </c>
+      <c r="G27" s="35" t="s">
         <v>563</v>
       </c>
-      <c r="D26" s="41" t="s">
-        <v>432</v>
-      </c>
-      <c r="E26" s="41" t="s">
+      <c r="H27" s="35" t="s">
         <v>564</v>
-      </c>
-      <c r="F26" s="13" t="s">
-        <v>527</v>
-      </c>
-      <c r="G26" s="41" t="s">
-        <v>565</v>
-      </c>
-      <c r="H26" s="41" t="s">
-        <v>566</v>
-      </c>
-      <c r="I26" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="J26" s="42" t="s">
-        <v>239</v>
-      </c>
-      <c r="K26" s="43"/>
-    </row>
-    <row r="27" spans="1:11" s="40" customFormat="1" ht="282.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="16" t="s">
-        <v>567</v>
-      </c>
-      <c r="B27" s="13" t="s">
-        <v>462</v>
-      </c>
-      <c r="C27" s="41" t="s">
-        <v>568</v>
-      </c>
-      <c r="D27" s="41" t="s">
-        <v>432</v>
-      </c>
-      <c r="E27" s="41" t="s">
-        <v>564</v>
-      </c>
-      <c r="F27" s="13" t="s">
-        <v>527</v>
-      </c>
-      <c r="G27" s="41" t="s">
-        <v>569</v>
-      </c>
-      <c r="H27" s="41" t="s">
-        <v>570</v>
       </c>
       <c r="I27" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="J27" s="42" t="s">
-        <v>239</v>
-      </c>
-      <c r="K27" s="43"/>
+      <c r="J27" s="36" t="s">
+        <v>238</v>
+      </c>
+      <c r="K27" s="37"/>
     </row>
     <row r="28" spans="1:11" ht="14.65" thickTop="1" x14ac:dyDescent="0.45"/>
   </sheetData>
-  <conditionalFormatting sqref="J4">
-    <cfRule type="containsText" dxfId="11" priority="5" operator="containsText" text="NOT TESTED">
+  <conditionalFormatting sqref="J4:J27">
+    <cfRule type="containsText" dxfId="11" priority="1" operator="containsText" text="NOT TESTED">
       <formula>NOT(ISERROR(SEARCH("NOT TESTED",J4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="6" operator="containsText" text="BLOCKED">
+    <cfRule type="containsText" dxfId="10" priority="2" operator="containsText" text="BLOCKED">
       <formula>NOT(ISERROR(SEARCH("BLOCKED",J4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="7" operator="containsText" text="FAIL">
+    <cfRule type="containsText" dxfId="9" priority="3" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",J4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="8" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="8" priority="4" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",J4)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J5:J27">
-    <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="NOT TESTED">
-      <formula>NOT(ISERROR(SEARCH("NOT TESTED",J5)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="2" operator="containsText" text="BLOCKED">
-      <formula>NOT(ISERROR(SEARCH("BLOCKED",J5)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="3" operator="containsText" text="FAIL">
-      <formula>NOT(ISERROR(SEARCH("FAIL",J5)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="4" operator="containsText" text="PASS">
-      <formula>NOT(ISERROR(SEARCH("PASS",J5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
@@ -7908,8 +8582,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DB48BD2-0EFF-46D3-96FF-E8122F7791CB}">
   <dimension ref="A1:K41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="26" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+    <sheetView topLeftCell="A17" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -7928,1278 +8602,1278 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="2" spans="1:11" s="36" customFormat="1" ht="23.65" thickTop="1" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A2" s="35" t="s">
+    <row r="2" spans="1:11" s="33" customFormat="1" ht="23.65" thickTop="1" thickBot="1" x14ac:dyDescent="0.7">
+      <c r="A2" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="B2" s="32" t="s">
         <v>90</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="C2" s="32" t="s">
         <v>91</v>
       </c>
-      <c r="C2" s="35" t="s">
+      <c r="D2" s="32" t="s">
         <v>92</v>
       </c>
-      <c r="D2" s="35" t="s">
+      <c r="E2" s="32" t="s">
         <v>93</v>
       </c>
-      <c r="E2" s="35" t="s">
+      <c r="F2" s="32" t="s">
         <v>94</v>
       </c>
-      <c r="F2" s="35" t="s">
+      <c r="G2" s="32" t="s">
         <v>95</v>
       </c>
-      <c r="G2" s="35" t="s">
+      <c r="H2" s="32" t="s">
         <v>96</v>
       </c>
-      <c r="H2" s="35" t="s">
+      <c r="I2" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="I2" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2" s="35" t="s">
+      <c r="K2" s="32" t="s">
         <v>98</v>
       </c>
-      <c r="K2" s="35" t="s">
-        <v>99</v>
-      </c>
     </row>
     <row r="3" spans="1:11" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="4" spans="1:11" s="44" customFormat="1" ht="409.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:11" s="38" customFormat="1" ht="409.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="16" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>572</v>
-      </c>
-      <c r="C4" s="41" t="s">
-        <v>573</v>
-      </c>
-      <c r="D4" s="41" t="s">
-        <v>300</v>
-      </c>
-      <c r="E4" s="41" t="s">
-        <v>574</v>
+        <v>566</v>
+      </c>
+      <c r="C4" s="35" t="s">
+        <v>567</v>
+      </c>
+      <c r="D4" s="35" t="s">
+        <v>299</v>
+      </c>
+      <c r="E4" s="35" t="s">
+        <v>568</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>434</v>
-      </c>
-      <c r="G4" s="41" t="s">
-        <v>575</v>
-      </c>
-      <c r="H4" s="41" t="s">
-        <v>576</v>
+        <v>432</v>
+      </c>
+      <c r="G4" s="35" t="s">
+        <v>569</v>
+      </c>
+      <c r="H4" s="35" t="s">
+        <v>570</v>
       </c>
       <c r="I4" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="J4" s="42" t="s">
-        <v>239</v>
-      </c>
-      <c r="K4" s="43"/>
-    </row>
-    <row r="5" spans="1:11" s="44" customFormat="1" ht="177" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="J4" s="36" t="s">
+        <v>238</v>
+      </c>
+      <c r="K4" s="37"/>
+    </row>
+    <row r="5" spans="1:11" s="38" customFormat="1" ht="177" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="16" t="s">
+        <v>571</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>566</v>
+      </c>
+      <c r="C5" s="35" t="s">
+        <v>572</v>
+      </c>
+      <c r="D5" s="35" t="s">
+        <v>299</v>
+      </c>
+      <c r="E5" s="35" t="s">
+        <v>573</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>432</v>
+      </c>
+      <c r="G5" s="35" t="s">
+        <v>574</v>
+      </c>
+      <c r="H5" s="35" t="s">
+        <v>575</v>
+      </c>
+      <c r="I5" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="J5" s="36" t="s">
+        <v>238</v>
+      </c>
+      <c r="K5" s="37"/>
+    </row>
+    <row r="6" spans="1:11" s="38" customFormat="1" ht="177" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="16" t="s">
+        <v>576</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>566</v>
+      </c>
+      <c r="C6" s="35" t="s">
         <v>577</v>
       </c>
-      <c r="B5" s="13" t="s">
-        <v>572</v>
-      </c>
-      <c r="C5" s="41" t="s">
+      <c r="D6" s="35" t="s">
+        <v>299</v>
+      </c>
+      <c r="E6" s="35" t="s">
         <v>578</v>
       </c>
-      <c r="D5" s="41" t="s">
-        <v>300</v>
-      </c>
-      <c r="E5" s="41" t="s">
+      <c r="F6" s="13" t="s">
+        <v>432</v>
+      </c>
+      <c r="G6" s="35" t="s">
         <v>579</v>
       </c>
-      <c r="F5" s="13" t="s">
-        <v>434</v>
-      </c>
-      <c r="G5" s="41" t="s">
+      <c r="H6" s="35" t="s">
         <v>580</v>
       </c>
-      <c r="H5" s="41" t="s">
+      <c r="I6" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="J6" s="36" t="s">
+        <v>238</v>
+      </c>
+      <c r="K6" s="37"/>
+    </row>
+    <row r="7" spans="1:11" s="38" customFormat="1" ht="79.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="16" t="s">
         <v>581</v>
       </c>
-      <c r="I5" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="J5" s="42" t="s">
-        <v>239</v>
-      </c>
-      <c r="K5" s="43"/>
-    </row>
-    <row r="6" spans="1:11" s="44" customFormat="1" ht="177" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="16" t="s">
+      <c r="B7" s="13" t="s">
+        <v>566</v>
+      </c>
+      <c r="C7" s="35" t="s">
         <v>582</v>
       </c>
-      <c r="B6" s="13" t="s">
-        <v>572</v>
-      </c>
-      <c r="C6" s="41" t="s">
+      <c r="D7" s="35" t="s">
+        <v>299</v>
+      </c>
+      <c r="E7" s="35" t="s">
         <v>583</v>
       </c>
-      <c r="D6" s="41" t="s">
-        <v>300</v>
-      </c>
-      <c r="E6" s="41" t="s">
+      <c r="F7" s="13" t="s">
+        <v>432</v>
+      </c>
+      <c r="G7" s="35" t="s">
         <v>584</v>
       </c>
-      <c r="F6" s="13" t="s">
-        <v>434</v>
-      </c>
-      <c r="G6" s="41" t="s">
+      <c r="H7" s="35" t="s">
         <v>585</v>
       </c>
-      <c r="H6" s="41" t="s">
+      <c r="I7" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="J7" s="36" t="s">
+        <v>238</v>
+      </c>
+      <c r="K7" s="37"/>
+    </row>
+    <row r="8" spans="1:11" s="38" customFormat="1" ht="265.14999999999998" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="16" t="s">
         <v>586</v>
       </c>
-      <c r="I6" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="J6" s="42" t="s">
-        <v>239</v>
-      </c>
-      <c r="K6" s="43"/>
-    </row>
-    <row r="7" spans="1:11" s="44" customFormat="1" ht="79.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="16" t="s">
+      <c r="B8" s="13" t="s">
+        <v>566</v>
+      </c>
+      <c r="C8" s="35" t="s">
         <v>587</v>
       </c>
-      <c r="B7" s="13" t="s">
-        <v>572</v>
-      </c>
-      <c r="C7" s="41" t="s">
+      <c r="D8" s="35" t="s">
+        <v>299</v>
+      </c>
+      <c r="E8" s="35" t="s">
         <v>588</v>
       </c>
-      <c r="D7" s="41" t="s">
-        <v>300</v>
-      </c>
-      <c r="E7" s="41" t="s">
+      <c r="F8" s="13" t="s">
+        <v>432</v>
+      </c>
+      <c r="G8" s="35" t="s">
         <v>589</v>
       </c>
-      <c r="F7" s="13" t="s">
-        <v>434</v>
-      </c>
-      <c r="G7" s="41" t="s">
+      <c r="H8" s="35" t="s">
+        <v>570</v>
+      </c>
+      <c r="I8" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="J8" s="39" t="s">
+        <v>238</v>
+      </c>
+      <c r="K8" s="37"/>
+    </row>
+    <row r="9" spans="1:11" s="38" customFormat="1" ht="265.14999999999998" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="16" t="s">
         <v>590</v>
       </c>
-      <c r="H7" s="41" t="s">
+      <c r="B9" s="13" t="s">
+        <v>566</v>
+      </c>
+      <c r="C9" s="35" t="s">
         <v>591</v>
       </c>
-      <c r="I7" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="J7" s="42" t="s">
-        <v>239</v>
-      </c>
-      <c r="K7" s="43"/>
-    </row>
-    <row r="8" spans="1:11" s="44" customFormat="1" ht="265.14999999999998" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="16" t="s">
+      <c r="D9" s="35" t="s">
+        <v>299</v>
+      </c>
+      <c r="E9" s="35" t="s">
         <v>592</v>
       </c>
-      <c r="B8" s="13" t="s">
-        <v>572</v>
-      </c>
-      <c r="C8" s="41" t="s">
+      <c r="F9" s="13" t="s">
+        <v>432</v>
+      </c>
+      <c r="G9" s="35" t="s">
         <v>593</v>
       </c>
-      <c r="D8" s="41" t="s">
-        <v>300</v>
-      </c>
-      <c r="E8" s="41" t="s">
+      <c r="H9" s="35" t="s">
         <v>594</v>
       </c>
-      <c r="F8" s="13" t="s">
-        <v>434</v>
-      </c>
-      <c r="G8" s="41" t="s">
+      <c r="I9" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="J9" s="42" t="s">
+        <v>241</v>
+      </c>
+      <c r="K9" s="13" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" s="38" customFormat="1" ht="388.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="16" t="s">
         <v>595</v>
       </c>
-      <c r="H8" s="41" t="s">
-        <v>576</v>
-      </c>
-      <c r="I8" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="J8" s="46" t="s">
-        <v>239</v>
-      </c>
-      <c r="K8" s="43"/>
-    </row>
-    <row r="9" spans="1:11" s="44" customFormat="1" ht="265.14999999999998" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="16" t="s">
+      <c r="B10" s="13" t="s">
+        <v>566</v>
+      </c>
+      <c r="C10" s="35" t="s">
         <v>596</v>
       </c>
-      <c r="B9" s="13" t="s">
-        <v>572</v>
-      </c>
-      <c r="C9" s="41" t="s">
+      <c r="D10" s="35" t="s">
+        <v>299</v>
+      </c>
+      <c r="E10" s="35" t="s">
         <v>597</v>
       </c>
-      <c r="D9" s="41" t="s">
-        <v>300</v>
-      </c>
-      <c r="E9" s="41" t="s">
+      <c r="F10" s="13" t="s">
         <v>598</v>
       </c>
-      <c r="F9" s="13" t="s">
-        <v>434</v>
-      </c>
-      <c r="G9" s="41" t="s">
+      <c r="G10" s="35" t="s">
         <v>599</v>
       </c>
-      <c r="H9" s="41" t="s">
+      <c r="H10" s="35" t="s">
+        <v>570</v>
+      </c>
+      <c r="I10" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="J10" s="36" t="s">
+        <v>238</v>
+      </c>
+      <c r="K10" s="37"/>
+    </row>
+    <row r="11" spans="1:11" s="38" customFormat="1" ht="194.65" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="16" t="s">
         <v>600</v>
       </c>
-      <c r="I9" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="J9" s="45" t="s">
-        <v>242</v>
-      </c>
-      <c r="K9" s="41" t="s">
+      <c r="B11" s="13" t="s">
+        <v>566</v>
+      </c>
+      <c r="C11" s="35" t="s">
         <v>601</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" s="44" customFormat="1" ht="388.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="16" t="s">
+      <c r="D11" s="35" t="s">
+        <v>299</v>
+      </c>
+      <c r="E11" s="35" t="s">
         <v>602</v>
       </c>
-      <c r="B10" s="13" t="s">
-        <v>572</v>
-      </c>
-      <c r="C10" s="41" t="s">
+      <c r="F11" s="13" t="s">
+        <v>432</v>
+      </c>
+      <c r="G11" s="35" t="s">
         <v>603</v>
       </c>
-      <c r="D10" s="41" t="s">
-        <v>300</v>
-      </c>
-      <c r="E10" s="41" t="s">
+      <c r="H11" s="35" t="s">
+        <v>570</v>
+      </c>
+      <c r="I11" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="J11" s="36" t="s">
+        <v>238</v>
+      </c>
+      <c r="K11" s="37"/>
+    </row>
+    <row r="12" spans="1:11" s="38" customFormat="1" ht="194.65" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="16" t="s">
         <v>604</v>
       </c>
-      <c r="F10" s="13" t="s">
+      <c r="B12" s="13" t="s">
+        <v>566</v>
+      </c>
+      <c r="C12" s="35" t="s">
         <v>605</v>
       </c>
-      <c r="G10" s="41" t="s">
+      <c r="D12" s="35" t="s">
+        <v>299</v>
+      </c>
+      <c r="E12" s="35" t="s">
         <v>606</v>
       </c>
-      <c r="H10" s="41" t="s">
-        <v>576</v>
-      </c>
-      <c r="I10" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="J10" s="42" t="s">
-        <v>239</v>
-      </c>
-      <c r="K10" s="43"/>
-    </row>
-    <row r="11" spans="1:11" s="44" customFormat="1" ht="194.65" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="16" t="s">
+      <c r="F12" s="13" t="s">
+        <v>598</v>
+      </c>
+      <c r="G12" s="35" t="s">
         <v>607</v>
       </c>
-      <c r="B11" s="13" t="s">
-        <v>572</v>
-      </c>
-      <c r="C11" s="41" t="s">
+      <c r="H12" s="35" t="s">
+        <v>570</v>
+      </c>
+      <c r="I12" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="J12" s="36" t="s">
+        <v>238</v>
+      </c>
+      <c r="K12" s="37"/>
+    </row>
+    <row r="13" spans="1:11" s="38" customFormat="1" ht="318" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="16" t="s">
         <v>608</v>
       </c>
-      <c r="D11" s="41" t="s">
-        <v>300</v>
-      </c>
-      <c r="E11" s="41" t="s">
+      <c r="B13" s="13" t="s">
+        <v>566</v>
+      </c>
+      <c r="C13" s="35" t="s">
         <v>609</v>
       </c>
-      <c r="F11" s="13" t="s">
-        <v>434</v>
-      </c>
-      <c r="G11" s="41" t="s">
+      <c r="D13" s="35" t="s">
+        <v>299</v>
+      </c>
+      <c r="E13" s="35" t="s">
         <v>610</v>
       </c>
-      <c r="H11" s="41" t="s">
-        <v>576</v>
-      </c>
-      <c r="I11" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="J11" s="42" t="s">
-        <v>239</v>
-      </c>
-      <c r="K11" s="43"/>
-    </row>
-    <row r="12" spans="1:11" s="44" customFormat="1" ht="194.65" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="16" t="s">
+      <c r="F13" s="13" t="s">
+        <v>598</v>
+      </c>
+      <c r="G13" s="35" t="s">
         <v>611</v>
       </c>
-      <c r="B12" s="13" t="s">
-        <v>572</v>
-      </c>
-      <c r="C12" s="41" t="s">
+      <c r="H13" s="35" t="s">
+        <v>570</v>
+      </c>
+      <c r="I13" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="J13" s="36" t="s">
+        <v>238</v>
+      </c>
+      <c r="K13" s="37"/>
+    </row>
+    <row r="14" spans="1:11" s="38" customFormat="1" ht="212.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="16" t="s">
         <v>612</v>
       </c>
-      <c r="D12" s="41" t="s">
-        <v>300</v>
-      </c>
-      <c r="E12" s="41" t="s">
+      <c r="B14" s="13" t="s">
+        <v>566</v>
+      </c>
+      <c r="C14" s="35" t="s">
         <v>613</v>
       </c>
-      <c r="F12" s="13" t="s">
-        <v>605</v>
-      </c>
-      <c r="G12" s="41" t="s">
+      <c r="D14" s="35" t="s">
+        <v>299</v>
+      </c>
+      <c r="E14" s="35" t="s">
         <v>614</v>
       </c>
-      <c r="H12" s="41" t="s">
-        <v>576</v>
-      </c>
-      <c r="I12" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="J12" s="42" t="s">
-        <v>239</v>
-      </c>
-      <c r="K12" s="43"/>
-    </row>
-    <row r="13" spans="1:11" s="44" customFormat="1" ht="318" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="16" t="s">
+      <c r="F14" s="13" t="s">
+        <v>432</v>
+      </c>
+      <c r="G14" s="35" t="s">
         <v>615</v>
       </c>
-      <c r="B13" s="13" t="s">
-        <v>572</v>
-      </c>
-      <c r="C13" s="41" t="s">
+      <c r="H14" s="35" t="s">
+        <v>570</v>
+      </c>
+      <c r="I14" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="J14" s="36" t="s">
+        <v>238</v>
+      </c>
+      <c r="K14" s="37"/>
+    </row>
+    <row r="15" spans="1:11" s="38" customFormat="1" ht="177" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="16" t="s">
         <v>616</v>
       </c>
-      <c r="D13" s="41" t="s">
-        <v>300</v>
-      </c>
-      <c r="E13" s="41" t="s">
+      <c r="B15" s="13" t="s">
+        <v>566</v>
+      </c>
+      <c r="C15" s="35" t="s">
         <v>617</v>
       </c>
-      <c r="F13" s="13" t="s">
-        <v>605</v>
-      </c>
-      <c r="G13" s="41" t="s">
+      <c r="D15" s="35" t="s">
+        <v>299</v>
+      </c>
+      <c r="E15" s="35" t="s">
         <v>618</v>
       </c>
-      <c r="H13" s="41" t="s">
-        <v>576</v>
-      </c>
-      <c r="I13" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="J13" s="42" t="s">
-        <v>239</v>
-      </c>
-      <c r="K13" s="43"/>
-    </row>
-    <row r="14" spans="1:11" s="44" customFormat="1" ht="212.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="16" t="s">
+      <c r="F15" s="13" t="s">
+        <v>432</v>
+      </c>
+      <c r="G15" s="35" t="s">
         <v>619</v>
       </c>
-      <c r="B14" s="13" t="s">
-        <v>572</v>
-      </c>
-      <c r="C14" s="41" t="s">
+      <c r="H15" s="35" t="s">
+        <v>570</v>
+      </c>
+      <c r="I15" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="J15" s="36" t="s">
+        <v>238</v>
+      </c>
+      <c r="K15" s="37"/>
+    </row>
+    <row r="16" spans="1:11" s="38" customFormat="1" ht="194.65" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="16" t="s">
         <v>620</v>
       </c>
-      <c r="D14" s="41" t="s">
-        <v>300</v>
-      </c>
-      <c r="E14" s="41" t="s">
+      <c r="B16" s="13" t="s">
+        <v>566</v>
+      </c>
+      <c r="C16" s="35" t="s">
         <v>621</v>
       </c>
-      <c r="F14" s="13" t="s">
-        <v>434</v>
-      </c>
-      <c r="G14" s="41" t="s">
+      <c r="D16" s="35" t="s">
+        <v>299</v>
+      </c>
+      <c r="E16" s="35" t="s">
         <v>622</v>
       </c>
-      <c r="H14" s="41" t="s">
-        <v>576</v>
-      </c>
-      <c r="I14" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="J14" s="42" t="s">
-        <v>239</v>
-      </c>
-      <c r="K14" s="43"/>
-    </row>
-    <row r="15" spans="1:11" s="44" customFormat="1" ht="177" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="16" t="s">
+      <c r="F16" s="13" t="s">
+        <v>432</v>
+      </c>
+      <c r="G16" s="35" t="s">
         <v>623</v>
       </c>
-      <c r="B15" s="13" t="s">
-        <v>572</v>
-      </c>
-      <c r="C15" s="41" t="s">
+      <c r="H16" s="35" t="s">
+        <v>570</v>
+      </c>
+      <c r="I16" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="J16" s="36" t="s">
+        <v>238</v>
+      </c>
+      <c r="K16" s="37"/>
+    </row>
+    <row r="17" spans="1:11" s="38" customFormat="1" ht="177" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="16" t="s">
         <v>624</v>
       </c>
-      <c r="D15" s="41" t="s">
-        <v>300</v>
-      </c>
-      <c r="E15" s="41" t="s">
+      <c r="B17" s="13" t="s">
+        <v>566</v>
+      </c>
+      <c r="C17" s="35" t="s">
         <v>625</v>
       </c>
-      <c r="F15" s="13" t="s">
-        <v>434</v>
-      </c>
-      <c r="G15" s="41" t="s">
+      <c r="D17" s="35" t="s">
+        <v>299</v>
+      </c>
+      <c r="E17" s="35" t="s">
         <v>626</v>
       </c>
-      <c r="H15" s="41" t="s">
-        <v>576</v>
-      </c>
-      <c r="I15" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="J15" s="42" t="s">
-        <v>239</v>
-      </c>
-      <c r="K15" s="43"/>
-    </row>
-    <row r="16" spans="1:11" s="44" customFormat="1" ht="194.65" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="16" t="s">
+      <c r="F17" s="13" t="s">
+        <v>432</v>
+      </c>
+      <c r="G17" s="35" t="s">
         <v>627</v>
       </c>
-      <c r="B16" s="13" t="s">
-        <v>572</v>
-      </c>
-      <c r="C16" s="41" t="s">
+      <c r="H17" s="35" t="s">
+        <v>570</v>
+      </c>
+      <c r="I17" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="J17" s="36" t="s">
+        <v>238</v>
+      </c>
+      <c r="K17" s="37"/>
+    </row>
+    <row r="18" spans="1:11" s="38" customFormat="1" ht="194.65" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="16" t="s">
         <v>628</v>
       </c>
-      <c r="D16" s="41" t="s">
-        <v>300</v>
-      </c>
-      <c r="E16" s="41" t="s">
+      <c r="B18" s="13" t="s">
+        <v>566</v>
+      </c>
+      <c r="C18" s="35" t="s">
         <v>629</v>
       </c>
-      <c r="F16" s="13" t="s">
-        <v>434</v>
-      </c>
-      <c r="G16" s="41" t="s">
+      <c r="D18" s="35" t="s">
+        <v>299</v>
+      </c>
+      <c r="E18" s="35" t="s">
         <v>630</v>
       </c>
-      <c r="H16" s="41" t="s">
-        <v>576</v>
-      </c>
-      <c r="I16" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="J16" s="42" t="s">
-        <v>239</v>
-      </c>
-      <c r="K16" s="43"/>
-    </row>
-    <row r="17" spans="1:11" s="44" customFormat="1" ht="177" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="16" t="s">
+      <c r="F18" s="13" t="s">
+        <v>432</v>
+      </c>
+      <c r="G18" s="35" t="s">
         <v>631</v>
       </c>
-      <c r="B17" s="13" t="s">
-        <v>572</v>
-      </c>
-      <c r="C17" s="41" t="s">
+      <c r="H18" s="35" t="s">
+        <v>570</v>
+      </c>
+      <c r="I18" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="J18" s="36" t="s">
+        <v>238</v>
+      </c>
+      <c r="K18" s="37"/>
+    </row>
+    <row r="19" spans="1:11" s="38" customFormat="1" ht="177" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="16" t="s">
         <v>632</v>
       </c>
-      <c r="D17" s="41" t="s">
-        <v>300</v>
-      </c>
-      <c r="E17" s="41" t="s">
+      <c r="B19" s="13" t="s">
+        <v>566</v>
+      </c>
+      <c r="C19" s="35" t="s">
         <v>633</v>
       </c>
-      <c r="F17" s="13" t="s">
-        <v>434</v>
-      </c>
-      <c r="G17" s="41" t="s">
+      <c r="D19" s="35" t="s">
+        <v>299</v>
+      </c>
+      <c r="E19" s="35" t="s">
         <v>634</v>
       </c>
-      <c r="H17" s="41" t="s">
-        <v>576</v>
-      </c>
-      <c r="I17" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="J17" s="42" t="s">
-        <v>239</v>
-      </c>
-      <c r="K17" s="43"/>
-    </row>
-    <row r="18" spans="1:11" s="44" customFormat="1" ht="194.65" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="16" t="s">
+      <c r="F19" s="13" t="s">
+        <v>432</v>
+      </c>
+      <c r="G19" s="35" t="s">
         <v>635</v>
       </c>
-      <c r="B18" s="13" t="s">
-        <v>572</v>
-      </c>
-      <c r="C18" s="41" t="s">
+      <c r="H19" s="35" t="s">
+        <v>570</v>
+      </c>
+      <c r="I19" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="J19" s="36" t="s">
+        <v>238</v>
+      </c>
+      <c r="K19" s="37"/>
+    </row>
+    <row r="20" spans="1:11" s="38" customFormat="1" ht="229.9" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="16" t="s">
         <v>636</v>
       </c>
-      <c r="D18" s="41" t="s">
-        <v>300</v>
-      </c>
-      <c r="E18" s="41" t="s">
+      <c r="B20" s="13" t="s">
+        <v>566</v>
+      </c>
+      <c r="C20" s="35" t="s">
         <v>637</v>
       </c>
-      <c r="F18" s="13" t="s">
-        <v>434</v>
-      </c>
-      <c r="G18" s="41" t="s">
+      <c r="D20" s="35" t="s">
+        <v>299</v>
+      </c>
+      <c r="E20" s="35" t="s">
         <v>638</v>
       </c>
-      <c r="H18" s="41" t="s">
-        <v>576</v>
-      </c>
-      <c r="I18" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="J18" s="42" t="s">
-        <v>239</v>
-      </c>
-      <c r="K18" s="43"/>
-    </row>
-    <row r="19" spans="1:11" s="44" customFormat="1" ht="177" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="16" t="s">
+      <c r="F20" s="13" t="s">
+        <v>432</v>
+      </c>
+      <c r="G20" s="35" t="s">
         <v>639</v>
       </c>
-      <c r="B19" s="13" t="s">
-        <v>572</v>
-      </c>
-      <c r="C19" s="41" t="s">
+      <c r="H20" s="35" t="s">
+        <v>570</v>
+      </c>
+      <c r="I20" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="J20" s="36" t="s">
+        <v>238</v>
+      </c>
+      <c r="K20" s="37"/>
+    </row>
+    <row r="21" spans="1:11" s="38" customFormat="1" ht="318" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="16" t="s">
         <v>640</v>
       </c>
-      <c r="D19" s="41" t="s">
-        <v>300</v>
-      </c>
-      <c r="E19" s="41" t="s">
+      <c r="B21" s="13" t="s">
+        <v>566</v>
+      </c>
+      <c r="C21" s="35" t="s">
         <v>641</v>
       </c>
-      <c r="F19" s="13" t="s">
-        <v>434</v>
-      </c>
-      <c r="G19" s="41" t="s">
+      <c r="D21" s="35" t="s">
+        <v>299</v>
+      </c>
+      <c r="E21" s="35" t="s">
         <v>642</v>
       </c>
-      <c r="H19" s="41" t="s">
-        <v>576</v>
-      </c>
-      <c r="I19" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="J19" s="42" t="s">
-        <v>239</v>
-      </c>
-      <c r="K19" s="43"/>
-    </row>
-    <row r="20" spans="1:11" s="44" customFormat="1" ht="229.9" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="16" t="s">
+      <c r="F21" s="13" t="s">
+        <v>432</v>
+      </c>
+      <c r="G21" s="35" t="s">
         <v>643</v>
       </c>
-      <c r="B20" s="13" t="s">
-        <v>572</v>
-      </c>
-      <c r="C20" s="41" t="s">
+      <c r="H21" s="35" t="s">
+        <v>570</v>
+      </c>
+      <c r="I21" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="J21" s="36" t="s">
+        <v>238</v>
+      </c>
+      <c r="K21" s="37"/>
+    </row>
+    <row r="22" spans="1:11" s="38" customFormat="1" ht="212.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="16" t="s">
         <v>644</v>
       </c>
-      <c r="D20" s="41" t="s">
-        <v>300</v>
-      </c>
-      <c r="E20" s="41" t="s">
+      <c r="B22" s="13" t="s">
+        <v>566</v>
+      </c>
+      <c r="C22" s="35" t="s">
         <v>645</v>
       </c>
-      <c r="F20" s="13" t="s">
-        <v>434</v>
-      </c>
-      <c r="G20" s="41" t="s">
+      <c r="D22" s="35" t="s">
         <v>646</v>
       </c>
-      <c r="H20" s="41" t="s">
-        <v>576</v>
-      </c>
-      <c r="I20" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="J20" s="42" t="s">
-        <v>239</v>
-      </c>
-      <c r="K20" s="43"/>
-    </row>
-    <row r="21" spans="1:11" s="44" customFormat="1" ht="318" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="16" t="s">
+      <c r="E22" s="35" t="s">
         <v>647</v>
       </c>
-      <c r="B21" s="13" t="s">
-        <v>572</v>
-      </c>
-      <c r="C21" s="41" t="s">
+      <c r="F22" s="13" t="s">
+        <v>432</v>
+      </c>
+      <c r="G22" s="35" t="s">
         <v>648</v>
       </c>
-      <c r="D21" s="41" t="s">
-        <v>300</v>
-      </c>
-      <c r="E21" s="41" t="s">
+      <c r="H22" s="35" t="s">
+        <v>570</v>
+      </c>
+      <c r="I22" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="J22" s="36" t="s">
+        <v>238</v>
+      </c>
+      <c r="K22" s="37"/>
+    </row>
+    <row r="23" spans="1:11" s="38" customFormat="1" ht="229.9" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="16" t="s">
         <v>649</v>
       </c>
-      <c r="F21" s="13" t="s">
-        <v>434</v>
-      </c>
-      <c r="G21" s="41" t="s">
+      <c r="B23" s="13" t="s">
+        <v>566</v>
+      </c>
+      <c r="C23" s="35" t="s">
         <v>650</v>
       </c>
-      <c r="H21" s="41" t="s">
-        <v>576</v>
-      </c>
-      <c r="I21" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="J21" s="42" t="s">
-        <v>239</v>
-      </c>
-      <c r="K21" s="43"/>
-    </row>
-    <row r="22" spans="1:11" s="44" customFormat="1" ht="212.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="16" t="s">
+      <c r="D23" s="35" t="s">
         <v>651</v>
       </c>
-      <c r="B22" s="13" t="s">
-        <v>572</v>
-      </c>
-      <c r="C22" s="41" t="s">
+      <c r="E23" s="35" t="s">
         <v>652</v>
       </c>
-      <c r="D22" s="41" t="s">
+      <c r="F23" s="13" t="s">
+        <v>432</v>
+      </c>
+      <c r="G23" s="35" t="s">
         <v>653</v>
       </c>
-      <c r="E22" s="41" t="s">
+      <c r="H23" s="35" t="s">
+        <v>570</v>
+      </c>
+      <c r="I23" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="J23" s="36" t="s">
+        <v>238</v>
+      </c>
+      <c r="K23" s="37"/>
+    </row>
+    <row r="24" spans="1:11" s="38" customFormat="1" ht="194.65" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="16" t="s">
         <v>654</v>
       </c>
-      <c r="F22" s="13" t="s">
-        <v>434</v>
-      </c>
-      <c r="G22" s="41" t="s">
+      <c r="B24" s="13" t="s">
+        <v>566</v>
+      </c>
+      <c r="C24" s="35" t="s">
         <v>655</v>
       </c>
-      <c r="H22" s="41" t="s">
-        <v>576</v>
-      </c>
-      <c r="I22" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="J22" s="42" t="s">
-        <v>239</v>
-      </c>
-      <c r="K22" s="43"/>
-    </row>
-    <row r="23" spans="1:11" s="44" customFormat="1" ht="229.9" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="16" t="s">
+      <c r="D24" s="35" t="s">
+        <v>299</v>
+      </c>
+      <c r="E24" s="35" t="s">
         <v>656</v>
       </c>
-      <c r="B23" s="13" t="s">
-        <v>572</v>
-      </c>
-      <c r="C23" s="41" t="s">
+      <c r="F24" s="13" t="s">
+        <v>432</v>
+      </c>
+      <c r="G24" s="35" t="s">
         <v>657</v>
       </c>
-      <c r="D23" s="41" t="s">
+      <c r="H24" s="35" t="s">
+        <v>570</v>
+      </c>
+      <c r="I24" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="J24" s="36" t="s">
+        <v>238</v>
+      </c>
+      <c r="K24" s="37"/>
+    </row>
+    <row r="25" spans="1:11" s="38" customFormat="1" ht="177" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="16" t="s">
         <v>658</v>
       </c>
-      <c r="E23" s="41" t="s">
+      <c r="B25" s="13" t="s">
+        <v>566</v>
+      </c>
+      <c r="C25" s="35" t="s">
         <v>659</v>
       </c>
-      <c r="F23" s="13" t="s">
-        <v>434</v>
-      </c>
-      <c r="G23" s="41" t="s">
+      <c r="D25" s="35" t="s">
+        <v>651</v>
+      </c>
+      <c r="E25" s="35" t="s">
         <v>660</v>
       </c>
-      <c r="H23" s="41" t="s">
-        <v>576</v>
-      </c>
-      <c r="I23" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="J23" s="42" t="s">
-        <v>239</v>
-      </c>
-      <c r="K23" s="43"/>
-    </row>
-    <row r="24" spans="1:11" s="44" customFormat="1" ht="194.65" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="16" t="s">
+      <c r="F25" s="13" t="s">
+        <v>432</v>
+      </c>
+      <c r="G25" s="35" t="s">
         <v>661</v>
       </c>
-      <c r="B24" s="13" t="s">
-        <v>572</v>
-      </c>
-      <c r="C24" s="41" t="s">
+      <c r="H25" s="35" t="s">
+        <v>570</v>
+      </c>
+      <c r="I25" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="J25" s="36" t="s">
+        <v>238</v>
+      </c>
+      <c r="K25" s="37"/>
+    </row>
+    <row r="26" spans="1:11" s="38" customFormat="1" ht="106.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="16" t="s">
         <v>662</v>
       </c>
-      <c r="D24" s="41" t="s">
-        <v>300</v>
-      </c>
-      <c r="E24" s="41" t="s">
+      <c r="B26" s="13" t="s">
+        <v>566</v>
+      </c>
+      <c r="C26" s="35" t="s">
         <v>663</v>
       </c>
-      <c r="F24" s="13" t="s">
-        <v>434</v>
-      </c>
-      <c r="G24" s="41" t="s">
+      <c r="D26" s="35" t="s">
         <v>664</v>
       </c>
-      <c r="H24" s="41" t="s">
-        <v>576</v>
-      </c>
-      <c r="I24" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="J24" s="42" t="s">
-        <v>239</v>
-      </c>
-      <c r="K24" s="43"/>
-    </row>
-    <row r="25" spans="1:11" s="44" customFormat="1" ht="177" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="16" t="s">
+      <c r="E26" s="35" t="s">
         <v>665</v>
       </c>
-      <c r="B25" s="13" t="s">
-        <v>572</v>
-      </c>
-      <c r="C25" s="41" t="s">
+      <c r="F26" s="13" t="s">
+        <v>432</v>
+      </c>
+      <c r="G26" s="35" t="s">
         <v>666</v>
       </c>
-      <c r="D25" s="41" t="s">
-        <v>658</v>
-      </c>
-      <c r="E25" s="41" t="s">
+      <c r="H26" s="35" t="s">
+        <v>570</v>
+      </c>
+      <c r="I26" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="J26" s="36" t="s">
+        <v>238</v>
+      </c>
+      <c r="K26" s="37"/>
+    </row>
+    <row r="27" spans="1:11" s="38" customFormat="1" ht="106.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="16" t="s">
         <v>667</v>
       </c>
-      <c r="F25" s="13" t="s">
-        <v>434</v>
-      </c>
-      <c r="G25" s="41" t="s">
+      <c r="B27" s="13" t="s">
+        <v>566</v>
+      </c>
+      <c r="C27" s="35" t="s">
         <v>668</v>
       </c>
-      <c r="H25" s="41" t="s">
-        <v>576</v>
-      </c>
-      <c r="I25" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="J25" s="42" t="s">
-        <v>239</v>
-      </c>
-      <c r="K25" s="43"/>
-    </row>
-    <row r="26" spans="1:11" s="44" customFormat="1" ht="106.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="16" t="s">
+      <c r="D27" s="35" t="s">
+        <v>664</v>
+      </c>
+      <c r="E27" s="35" t="s">
         <v>669</v>
       </c>
-      <c r="B26" s="13" t="s">
-        <v>572</v>
-      </c>
-      <c r="C26" s="41" t="s">
+      <c r="F27" s="13" t="s">
+        <v>432</v>
+      </c>
+      <c r="G27" s="35" t="s">
         <v>670</v>
       </c>
-      <c r="D26" s="41" t="s">
+      <c r="H27" s="35" t="s">
+        <v>570</v>
+      </c>
+      <c r="I27" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="J27" s="36" t="s">
+        <v>238</v>
+      </c>
+      <c r="K27" s="37"/>
+    </row>
+    <row r="28" spans="1:11" s="38" customFormat="1" ht="177" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="16" t="s">
         <v>671</v>
       </c>
-      <c r="E26" s="41" t="s">
+      <c r="B28" s="13" t="s">
+        <v>566</v>
+      </c>
+      <c r="C28" s="35" t="s">
         <v>672</v>
       </c>
-      <c r="F26" s="13" t="s">
-        <v>434</v>
-      </c>
-      <c r="G26" s="41" t="s">
+      <c r="D28" s="35" t="s">
         <v>673</v>
       </c>
-      <c r="H26" s="41" t="s">
-        <v>576</v>
-      </c>
-      <c r="I26" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="J26" s="42" t="s">
-        <v>239</v>
-      </c>
-      <c r="K26" s="43"/>
-    </row>
-    <row r="27" spans="1:11" s="44" customFormat="1" ht="106.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="16" t="s">
+      <c r="E28" s="35" t="s">
         <v>674</v>
       </c>
-      <c r="B27" s="13" t="s">
-        <v>572</v>
-      </c>
-      <c r="C27" s="41" t="s">
+      <c r="F28" s="13" t="s">
+        <v>432</v>
+      </c>
+      <c r="G28" s="35" t="s">
         <v>675</v>
       </c>
-      <c r="D27" s="41" t="s">
-        <v>671</v>
-      </c>
-      <c r="E27" s="41" t="s">
+      <c r="H28" s="35" t="s">
+        <v>570</v>
+      </c>
+      <c r="I28" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="J28" s="36" t="s">
+        <v>238</v>
+      </c>
+      <c r="K28" s="37"/>
+    </row>
+    <row r="29" spans="1:11" s="38" customFormat="1" ht="229.9" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="16" t="s">
         <v>676</v>
       </c>
-      <c r="F27" s="13" t="s">
-        <v>434</v>
-      </c>
-      <c r="G27" s="41" t="s">
+      <c r="B29" s="13" t="s">
+        <v>566</v>
+      </c>
+      <c r="C29" s="35" t="s">
         <v>677</v>
       </c>
-      <c r="H27" s="41" t="s">
-        <v>576</v>
-      </c>
-      <c r="I27" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="J27" s="42" t="s">
-        <v>239</v>
-      </c>
-      <c r="K27" s="43"/>
-    </row>
-    <row r="28" spans="1:11" s="44" customFormat="1" ht="177" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="16" t="s">
+      <c r="D29" s="35" t="s">
+        <v>673</v>
+      </c>
+      <c r="E29" s="35" t="s">
         <v>678</v>
       </c>
-      <c r="B28" s="13" t="s">
-        <v>572</v>
-      </c>
-      <c r="C28" s="41" t="s">
+      <c r="F29" s="13" t="s">
+        <v>432</v>
+      </c>
+      <c r="G29" s="35" t="s">
+        <v>675</v>
+      </c>
+      <c r="H29" s="35" t="s">
+        <v>570</v>
+      </c>
+      <c r="I29" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="J29" s="36" t="s">
+        <v>238</v>
+      </c>
+      <c r="K29" s="37"/>
+    </row>
+    <row r="30" spans="1:11" s="38" customFormat="1" ht="229.9" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="16" t="s">
         <v>679</v>
       </c>
-      <c r="D28" s="41" t="s">
+      <c r="B30" s="13" t="s">
+        <v>566</v>
+      </c>
+      <c r="C30" s="35" t="s">
         <v>680</v>
       </c>
-      <c r="E28" s="41" t="s">
+      <c r="D30" s="35" t="s">
+        <v>673</v>
+      </c>
+      <c r="E30" s="35" t="s">
         <v>681</v>
       </c>
-      <c r="F28" s="13" t="s">
-        <v>434</v>
-      </c>
-      <c r="G28" s="41" t="s">
+      <c r="F30" s="13" t="s">
+        <v>432</v>
+      </c>
+      <c r="G30" s="35" t="s">
+        <v>675</v>
+      </c>
+      <c r="H30" s="35" t="s">
+        <v>570</v>
+      </c>
+      <c r="I30" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="J30" s="36" t="s">
+        <v>238</v>
+      </c>
+      <c r="K30" s="37"/>
+    </row>
+    <row r="31" spans="1:11" s="38" customFormat="1" ht="195" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="16" t="s">
         <v>682</v>
       </c>
-      <c r="H28" s="41" t="s">
-        <v>576</v>
-      </c>
-      <c r="I28" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="J28" s="42" t="s">
-        <v>239</v>
-      </c>
-      <c r="K28" s="43"/>
-    </row>
-    <row r="29" spans="1:11" s="44" customFormat="1" ht="229.9" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="16" t="s">
+      <c r="B31" s="13" t="s">
+        <v>566</v>
+      </c>
+      <c r="C31" s="35" t="s">
         <v>683</v>
       </c>
-      <c r="B29" s="13" t="s">
-        <v>572</v>
-      </c>
-      <c r="C29" s="41" t="s">
+      <c r="D31" s="35" t="s">
+        <v>673</v>
+      </c>
+      <c r="E31" s="35" t="s">
         <v>684</v>
       </c>
-      <c r="D29" s="41" t="s">
-        <v>680</v>
-      </c>
-      <c r="E29" s="41" t="s">
+      <c r="F31" s="13" t="s">
+        <v>432</v>
+      </c>
+      <c r="G31" s="35" t="s">
+        <v>675</v>
+      </c>
+      <c r="H31" s="35" t="s">
+        <v>570</v>
+      </c>
+      <c r="I31" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="J31" s="36" t="s">
+        <v>238</v>
+      </c>
+      <c r="K31" s="37"/>
+    </row>
+    <row r="32" spans="1:11" s="38" customFormat="1" ht="195" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="16" t="s">
         <v>685</v>
       </c>
-      <c r="F29" s="13" t="s">
-        <v>434</v>
-      </c>
-      <c r="G29" s="41" t="s">
-        <v>682</v>
-      </c>
-      <c r="H29" s="41" t="s">
-        <v>576</v>
-      </c>
-      <c r="I29" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="J29" s="42" t="s">
-        <v>239</v>
-      </c>
-      <c r="K29" s="43"/>
-    </row>
-    <row r="30" spans="1:11" s="44" customFormat="1" ht="229.9" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="16" t="s">
+      <c r="B32" s="13" t="s">
+        <v>566</v>
+      </c>
+      <c r="C32" s="35" t="s">
         <v>686</v>
       </c>
-      <c r="B30" s="13" t="s">
-        <v>572</v>
-      </c>
-      <c r="C30" s="41" t="s">
+      <c r="D32" s="35" t="s">
+        <v>673</v>
+      </c>
+      <c r="E32" s="35" t="s">
         <v>687</v>
       </c>
-      <c r="D30" s="41" t="s">
-        <v>680</v>
-      </c>
-      <c r="E30" s="41" t="s">
+      <c r="F32" s="13" t="s">
+        <v>432</v>
+      </c>
+      <c r="G32" s="35" t="s">
+        <v>675</v>
+      </c>
+      <c r="H32" s="35" t="s">
+        <v>570</v>
+      </c>
+      <c r="I32" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="J32" s="36" t="s">
+        <v>238</v>
+      </c>
+      <c r="K32" s="37"/>
+    </row>
+    <row r="33" spans="1:11" s="38" customFormat="1" ht="195" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="16" t="s">
         <v>688</v>
       </c>
-      <c r="F30" s="13" t="s">
-        <v>434</v>
-      </c>
-      <c r="G30" s="41" t="s">
-        <v>682</v>
-      </c>
-      <c r="H30" s="41" t="s">
-        <v>576</v>
-      </c>
-      <c r="I30" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="J30" s="42" t="s">
-        <v>239</v>
-      </c>
-      <c r="K30" s="43"/>
-    </row>
-    <row r="31" spans="1:11" s="44" customFormat="1" ht="195" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="16" t="s">
+      <c r="B33" s="13" t="s">
+        <v>566</v>
+      </c>
+      <c r="C33" s="35" t="s">
         <v>689</v>
       </c>
-      <c r="B31" s="13" t="s">
-        <v>572</v>
-      </c>
-      <c r="C31" s="41" t="s">
+      <c r="D33" s="35" t="s">
+        <v>673</v>
+      </c>
+      <c r="E33" s="35" t="s">
         <v>690</v>
       </c>
-      <c r="D31" s="41" t="s">
-        <v>680</v>
-      </c>
-      <c r="E31" s="41" t="s">
+      <c r="F33" s="13" t="s">
+        <v>432</v>
+      </c>
+      <c r="G33" s="35" t="s">
+        <v>675</v>
+      </c>
+      <c r="H33" s="35" t="s">
+        <v>570</v>
+      </c>
+      <c r="I33" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="J33" s="36" t="s">
+        <v>238</v>
+      </c>
+      <c r="K33" s="37"/>
+    </row>
+    <row r="34" spans="1:11" s="38" customFormat="1" ht="177" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" s="16" t="s">
         <v>691</v>
       </c>
-      <c r="F31" s="13" t="s">
-        <v>434</v>
-      </c>
-      <c r="G31" s="41" t="s">
-        <v>682</v>
-      </c>
-      <c r="H31" s="41" t="s">
-        <v>576</v>
-      </c>
-      <c r="I31" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="J31" s="42" t="s">
-        <v>239</v>
-      </c>
-      <c r="K31" s="43"/>
-    </row>
-    <row r="32" spans="1:11" s="44" customFormat="1" ht="195" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="16" t="s">
+      <c r="B34" s="13" t="s">
+        <v>566</v>
+      </c>
+      <c r="C34" s="35" t="s">
         <v>692</v>
       </c>
-      <c r="B32" s="13" t="s">
-        <v>572</v>
-      </c>
-      <c r="C32" s="41" t="s">
+      <c r="D34" s="35" t="s">
+        <v>673</v>
+      </c>
+      <c r="E34" s="35" t="s">
         <v>693</v>
       </c>
-      <c r="D32" s="41" t="s">
-        <v>680</v>
-      </c>
-      <c r="E32" s="41" t="s">
+      <c r="F34" s="13" t="s">
+        <v>598</v>
+      </c>
+      <c r="G34" s="35" t="s">
         <v>694</v>
       </c>
-      <c r="F32" s="13" t="s">
-        <v>434</v>
-      </c>
-      <c r="G32" s="41" t="s">
-        <v>682</v>
-      </c>
-      <c r="H32" s="41" t="s">
-        <v>576</v>
-      </c>
-      <c r="I32" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="J32" s="42" t="s">
-        <v>239</v>
-      </c>
-      <c r="K32" s="43"/>
-    </row>
-    <row r="33" spans="1:11" s="44" customFormat="1" ht="195" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="16" t="s">
+      <c r="H34" s="35" t="s">
+        <v>570</v>
+      </c>
+      <c r="I34" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="J34" s="36" t="s">
+        <v>238</v>
+      </c>
+      <c r="K34" s="37"/>
+    </row>
+    <row r="35" spans="1:11" s="38" customFormat="1" ht="194.65" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" s="16" t="s">
         <v>695</v>
       </c>
-      <c r="B33" s="13" t="s">
-        <v>572</v>
-      </c>
-      <c r="C33" s="41" t="s">
+      <c r="B35" s="13" t="s">
+        <v>566</v>
+      </c>
+      <c r="C35" s="35" t="s">
         <v>696</v>
       </c>
-      <c r="D33" s="41" t="s">
-        <v>680</v>
-      </c>
-      <c r="E33" s="41" t="s">
+      <c r="D35" s="35" t="s">
+        <v>673</v>
+      </c>
+      <c r="E35" s="35" t="s">
         <v>697</v>
       </c>
-      <c r="F33" s="13" t="s">
-        <v>434</v>
-      </c>
-      <c r="G33" s="41" t="s">
-        <v>682</v>
-      </c>
-      <c r="H33" s="41" t="s">
-        <v>576</v>
-      </c>
-      <c r="I33" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="J33" s="42" t="s">
-        <v>239</v>
-      </c>
-      <c r="K33" s="43"/>
-    </row>
-    <row r="34" spans="1:11" s="44" customFormat="1" ht="177" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="16" t="s">
+      <c r="F35" s="13" t="s">
+        <v>598</v>
+      </c>
+      <c r="G35" s="35" t="s">
         <v>698</v>
       </c>
-      <c r="B34" s="13" t="s">
-        <v>572</v>
-      </c>
-      <c r="C34" s="41" t="s">
+      <c r="H35" s="35" t="s">
+        <v>570</v>
+      </c>
+      <c r="I35" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="J35" s="36" t="s">
+        <v>238</v>
+      </c>
+      <c r="K35" s="37"/>
+    </row>
+    <row r="36" spans="1:11" s="38" customFormat="1" ht="194.65" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" s="16" t="s">
         <v>699</v>
       </c>
-      <c r="D34" s="41" t="s">
-        <v>680</v>
-      </c>
-      <c r="E34" s="41" t="s">
+      <c r="B36" s="13" t="s">
+        <v>566</v>
+      </c>
+      <c r="C36" s="35" t="s">
         <v>700</v>
       </c>
-      <c r="F34" s="13" t="s">
-        <v>605</v>
-      </c>
-      <c r="G34" s="41" t="s">
+      <c r="D36" s="35" t="s">
+        <v>673</v>
+      </c>
+      <c r="E36" s="35" t="s">
         <v>701</v>
       </c>
-      <c r="H34" s="41" t="s">
-        <v>576</v>
-      </c>
-      <c r="I34" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="J34" s="42" t="s">
-        <v>239</v>
-      </c>
-      <c r="K34" s="43"/>
-    </row>
-    <row r="35" spans="1:11" s="44" customFormat="1" ht="194.65" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="16" t="s">
+      <c r="F36" s="13" t="s">
+        <v>598</v>
+      </c>
+      <c r="G36" s="35" t="s">
         <v>702</v>
       </c>
-      <c r="B35" s="13" t="s">
-        <v>572</v>
-      </c>
-      <c r="C35" s="41" t="s">
+      <c r="H36" s="35" t="s">
+        <v>570</v>
+      </c>
+      <c r="I36" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="J36" s="36" t="s">
+        <v>238</v>
+      </c>
+      <c r="K36" s="37"/>
+    </row>
+    <row r="37" spans="1:11" s="38" customFormat="1" ht="177" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" s="16" t="s">
         <v>703</v>
       </c>
-      <c r="D35" s="41" t="s">
-        <v>680</v>
-      </c>
-      <c r="E35" s="41" t="s">
+      <c r="B37" s="13" t="s">
+        <v>566</v>
+      </c>
+      <c r="C37" s="35" t="s">
         <v>704</v>
       </c>
-      <c r="F35" s="13" t="s">
-        <v>605</v>
-      </c>
-      <c r="G35" s="41" t="s">
+      <c r="D37" s="35" t="s">
+        <v>673</v>
+      </c>
+      <c r="E37" s="35" t="s">
         <v>705</v>
       </c>
-      <c r="H35" s="41" t="s">
-        <v>576</v>
-      </c>
-      <c r="I35" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="J35" s="42" t="s">
-        <v>239</v>
-      </c>
-      <c r="K35" s="43"/>
-    </row>
-    <row r="36" spans="1:11" s="44" customFormat="1" ht="194.65" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="16" t="s">
+      <c r="F37" s="13" t="s">
+        <v>598</v>
+      </c>
+      <c r="G37" s="35" t="s">
         <v>706</v>
       </c>
-      <c r="B36" s="13" t="s">
-        <v>572</v>
-      </c>
-      <c r="C36" s="41" t="s">
+      <c r="H37" s="35" t="s">
+        <v>570</v>
+      </c>
+      <c r="I37" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="J37" s="36" t="s">
+        <v>238</v>
+      </c>
+      <c r="K37" s="37"/>
+    </row>
+    <row r="38" spans="1:11" s="38" customFormat="1" ht="194.65" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" s="16" t="s">
         <v>707</v>
       </c>
-      <c r="D36" s="41" t="s">
-        <v>680</v>
-      </c>
-      <c r="E36" s="41" t="s">
+      <c r="B38" s="13" t="s">
+        <v>566</v>
+      </c>
+      <c r="C38" s="35" t="s">
         <v>708</v>
       </c>
-      <c r="F36" s="13" t="s">
-        <v>605</v>
-      </c>
-      <c r="G36" s="41" t="s">
+      <c r="D38" s="35" t="s">
+        <v>430</v>
+      </c>
+      <c r="E38" s="35" t="s">
         <v>709</v>
       </c>
-      <c r="H36" s="41" t="s">
-        <v>576</v>
-      </c>
-      <c r="I36" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="J36" s="42" t="s">
-        <v>239</v>
-      </c>
-      <c r="K36" s="43"/>
-    </row>
-    <row r="37" spans="1:11" s="44" customFormat="1" ht="177" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" s="16" t="s">
+      <c r="F38" s="13" t="s">
+        <v>521</v>
+      </c>
+      <c r="G38" s="35" t="s">
         <v>710</v>
       </c>
-      <c r="B37" s="13" t="s">
-        <v>572</v>
-      </c>
-      <c r="C37" s="41" t="s">
+      <c r="H38" s="35" t="s">
+        <v>570</v>
+      </c>
+      <c r="I38" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="J38" s="36" t="s">
+        <v>238</v>
+      </c>
+      <c r="K38" s="37"/>
+    </row>
+    <row r="39" spans="1:11" s="38" customFormat="1" ht="141.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" s="16" t="s">
         <v>711</v>
       </c>
-      <c r="D37" s="41" t="s">
-        <v>680</v>
-      </c>
-      <c r="E37" s="41" t="s">
+      <c r="B39" s="13" t="s">
+        <v>566</v>
+      </c>
+      <c r="C39" s="35" t="s">
         <v>712</v>
       </c>
-      <c r="F37" s="13" t="s">
-        <v>605</v>
-      </c>
-      <c r="G37" s="41" t="s">
+      <c r="D39" s="35" t="s">
+        <v>430</v>
+      </c>
+      <c r="E39" s="35" t="s">
         <v>713</v>
       </c>
-      <c r="H37" s="41" t="s">
-        <v>576</v>
-      </c>
-      <c r="I37" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="J37" s="42" t="s">
-        <v>239</v>
-      </c>
-      <c r="K37" s="43"/>
-    </row>
-    <row r="38" spans="1:11" s="44" customFormat="1" ht="194.65" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" s="16" t="s">
+      <c r="F39" s="13" t="s">
+        <v>521</v>
+      </c>
+      <c r="G39" s="35" t="s">
         <v>714</v>
       </c>
-      <c r="B38" s="13" t="s">
-        <v>572</v>
-      </c>
-      <c r="C38" s="41" t="s">
+      <c r="H39" s="35" t="s">
+        <v>570</v>
+      </c>
+      <c r="I39" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="J39" s="36" t="s">
+        <v>238</v>
+      </c>
+      <c r="K39" s="37"/>
+    </row>
+    <row r="40" spans="1:11" s="38" customFormat="1" ht="141.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40" s="16" t="s">
         <v>715</v>
       </c>
-      <c r="D38" s="41" t="s">
-        <v>432</v>
-      </c>
-      <c r="E38" s="41" t="s">
+      <c r="B40" s="13" t="s">
+        <v>566</v>
+      </c>
+      <c r="C40" s="35" t="s">
         <v>716</v>
       </c>
-      <c r="F38" s="13" t="s">
-        <v>527</v>
-      </c>
-      <c r="G38" s="41" t="s">
+      <c r="D40" s="35" t="s">
+        <v>430</v>
+      </c>
+      <c r="E40" s="35" t="s">
+        <v>713</v>
+      </c>
+      <c r="F40" s="13" t="s">
+        <v>521</v>
+      </c>
+      <c r="G40" s="35" t="s">
         <v>717</v>
       </c>
-      <c r="H38" s="41" t="s">
-        <v>576</v>
-      </c>
-      <c r="I38" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="J38" s="42" t="s">
-        <v>239</v>
-      </c>
-      <c r="K38" s="43"/>
-    </row>
-    <row r="39" spans="1:11" s="44" customFormat="1" ht="141.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" s="16" t="s">
-        <v>718</v>
-      </c>
-      <c r="B39" s="13" t="s">
-        <v>572</v>
-      </c>
-      <c r="C39" s="41" t="s">
-        <v>719</v>
-      </c>
-      <c r="D39" s="41" t="s">
-        <v>432</v>
-      </c>
-      <c r="E39" s="41" t="s">
-        <v>720</v>
-      </c>
-      <c r="F39" s="13" t="s">
-        <v>527</v>
-      </c>
-      <c r="G39" s="41" t="s">
-        <v>721</v>
-      </c>
-      <c r="H39" s="41" t="s">
-        <v>576</v>
-      </c>
-      <c r="I39" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="J39" s="42" t="s">
-        <v>239</v>
-      </c>
-      <c r="K39" s="43"/>
-    </row>
-    <row r="40" spans="1:11" s="44" customFormat="1" ht="141.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" s="16" t="s">
-        <v>722</v>
-      </c>
-      <c r="B40" s="13" t="s">
-        <v>572</v>
-      </c>
-      <c r="C40" s="41" t="s">
-        <v>723</v>
-      </c>
-      <c r="D40" s="41" t="s">
-        <v>432</v>
-      </c>
-      <c r="E40" s="41" t="s">
-        <v>720</v>
-      </c>
-      <c r="F40" s="13" t="s">
-        <v>527</v>
-      </c>
-      <c r="G40" s="41" t="s">
-        <v>724</v>
-      </c>
-      <c r="H40" s="41" t="s">
-        <v>576</v>
+      <c r="H40" s="35" t="s">
+        <v>570</v>
       </c>
       <c r="I40" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="J40" s="42" t="s">
-        <v>239</v>
-      </c>
-      <c r="K40" s="43"/>
+      <c r="J40" s="36" t="s">
+        <v>238</v>
+      </c>
+      <c r="K40" s="37"/>
     </row>
     <row r="41" spans="1:11" ht="14.65" thickTop="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <conditionalFormatting sqref="J4:J40">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="NOT TESTED">
+    <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="NOT TESTED">
       <formula>NOT(ISERROR(SEARCH("NOT TESTED",J4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="BLOCKED">
+    <cfRule type="containsText" dxfId="6" priority="2" operator="containsText" text="BLOCKED">
       <formula>NOT(ISERROR(SEARCH("BLOCKED",J4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="FAIL">
+    <cfRule type="containsText" dxfId="5" priority="3" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",J4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="4" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="4" priority="4" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",J4)))</formula>
     </cfRule>
   </conditionalFormatting>
